--- a/data/omni-control/simtwo/gt/data-analysis_gt.xlsx
+++ b/data/omni-control/simtwo/gt/data-analysis_gt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inesctecpt-my.sharepoint.com/personal/ricardo_b_sousa_office365_inesctec_pt/Documents/inesctec/projects/trajectory-control/git/omni-control/src/SimTwo64/MSL/log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inesctecpt-my.sharepoint.com/personal/ricardo_b_sousa_office365_inesctec_pt/Documents/inesctec/projects/trajectory-control/git/omni-control/data/omni-control/simtwo/gt/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="724" documentId="8_{6C4C5C12-CB74-4A7B-923B-BE3379E350DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE03037-578B-4512-8D5F-CF9BE0544B69}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD07EEC4-0C01-44C2-8089-ACB43FE9EBFC}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{FD07EEC4-0C01-44C2-8089-ACB43FE9EBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,6 +876,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -884,10 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,10 +1206,10 @@
   <dimension ref="A1:U199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="13" topLeftCell="F178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="13" topLeftCell="F76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="T183" sqref="T183"/>
+      <selection pane="bottomRight" activeCell="A76" sqref="A76:A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,10 +1295,10 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1310,56 +1310,56 @@
       <c r="C10">
         <v>2.5</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="D12" s="19"/>
+      <c r="G12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="15" t="s">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="S12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="U12" s="2"/>
@@ -1410,14 +1410,14 @@
       <c r="P13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7">
@@ -1465,24 +1465,24 @@
         <v>5.5940033937622403E-2</v>
       </c>
       <c r="Q14" s="7">
-        <f>G14+H14+RADIANS(I14)+J14+K14+L14+M14+RADIANS(N14)+O14+P14</f>
+        <f t="shared" ref="Q14:Q29" si="0">G14+H14+RADIANS(I14)+J14+K14+L14+M14+RADIANS(N14)+O14+P14</f>
         <v>0.50619596048171767</v>
       </c>
       <c r="R14" s="7">
-        <f>RADIANS(I14/$C$10)+J14/$B$10+K14/$B$10+RADIANS(N14/$C$10)+O14/$B$10+P14/$B$10</f>
+        <f t="shared" ref="R14:R29" si="1">RADIANS(I14/$C$10)+J14/$B$10+K14/$B$10+RADIANS(N14/$C$10)+O14/$B$10+P14/$B$10</f>
         <v>6.9277639370551665</v>
       </c>
       <c r="S14" s="7">
-        <f>L14+M14+RADIANS(N14)+O14+P14</f>
+        <f t="shared" ref="S14:S29" si="2">L14+M14+RADIANS(N14)+O14+P14</f>
         <v>0.4603166255101952</v>
       </c>
       <c r="T14" s="7">
-        <f>RADIANS(N14/$C$10)+O14/$B$10+P14/$B$10</f>
+        <f t="shared" ref="T14:T29" si="3">RADIANS(N14/$C$10)+O14/$B$10+P14/$B$10</f>
         <v>6.1172990758350121</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="8">
         <v>0.5</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" ref="D15:D104" si="0">C15*$B$8</f>
+        <f t="shared" ref="D15:D104" si="4">C15*$B$8</f>
         <v>0.16</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1528,24 +1528,24 @@
         <v>3.7481840070667301E-2</v>
       </c>
       <c r="Q15" s="8">
-        <f>G15+H15+RADIANS(I15)+J15+K15+L15+M15+RADIANS(N15)+O15+P15</f>
+        <f t="shared" si="0"/>
         <v>0.35967768239615294</v>
       </c>
       <c r="R15" s="8">
-        <f>RADIANS(I15/$C$10)+J15/$B$10+K15/$B$10+RADIANS(N15/$C$10)+O15/$B$10+P15/$B$10</f>
+        <f t="shared" si="1"/>
         <v>4.6697213144225822</v>
       </c>
       <c r="S15" s="8">
-        <f>L15+M15+RADIANS(N15)+O15+P15</f>
+        <f t="shared" si="2"/>
         <v>0.32788959599583922</v>
       </c>
       <c r="T15" s="8">
-        <f>RADIANS(N15/$C$10)+O15/$B$10+P15/$B$10</f>
+        <f t="shared" si="3"/>
         <v>4.0860114901583682</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="9">
         <v>0.5</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1591,24 +1591,24 @@
         <v>2.6971446409928001E-2</v>
       </c>
       <c r="Q16" s="9">
-        <f>G16+H16+RADIANS(I16)+J16+K16+L16+M16+RADIANS(N16)+O16+P16</f>
+        <f t="shared" si="0"/>
         <v>0.25023299026041979</v>
       </c>
       <c r="R16" s="9">
-        <f>RADIANS(I16/$C$10)+J16/$B$10+K16/$B$10+RADIANS(N16/$C$10)+O16/$B$10+P16/$B$10</f>
+        <f t="shared" si="1"/>
         <v>3.3574746092402683</v>
       </c>
       <c r="S16" s="9">
-        <f>L16+M16+RADIANS(N16)+O16+P16</f>
+        <f t="shared" si="2"/>
         <v>0.22596589923833763</v>
       </c>
       <c r="T16" s="9">
-        <f>RADIANS(N16/$C$10)+O16/$B$10+P16/$B$10</f>
+        <f t="shared" si="3"/>
         <v>2.8749329354645519</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="8">
         <v>0.5</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1654,24 +1654,24 @@
         <v>3.22016407331936E-2</v>
       </c>
       <c r="Q17" s="8">
-        <f>G17+H17+RADIANS(I17)+J17+K17+L17+M17+RADIANS(N17)+O17+P17</f>
+        <f t="shared" si="0"/>
         <v>0.2519851038543241</v>
       </c>
       <c r="R17" s="8">
-        <f>RADIANS(I17/$C$10)+J17/$B$10+K17/$B$10+RADIANS(N17/$C$10)+O17/$B$10+P17/$B$10</f>
+        <f t="shared" si="1"/>
         <v>3.6305541389835607</v>
       </c>
       <c r="S17" s="8">
-        <f>L17+M17+RADIANS(N17)+O17+P17</f>
+        <f t="shared" si="2"/>
         <v>0.22878569295241227</v>
       </c>
       <c r="T17" s="8">
-        <f>RADIANS(N17/$C$10)+O17/$B$10+P17/$B$10</f>
+        <f t="shared" si="3"/>
         <v>3.1599570759321161</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="8">
         <v>0.5</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1717,24 +1717,24 @@
         <v>4.0747927787812097E-2</v>
       </c>
       <c r="Q18" s="8">
-        <f>G18+H18+RADIANS(I18)+J18+K18+L18+M18+RADIANS(N18)+O18+P18</f>
+        <f t="shared" si="0"/>
         <v>0.28186884933349227</v>
       </c>
       <c r="R18" s="8">
-        <f>RADIANS(I18/$C$10)+J18/$B$10+K18/$B$10+RADIANS(N18/$C$10)+O18/$B$10+P18/$B$10</f>
+        <f t="shared" si="1"/>
         <v>4.5017647910788776</v>
       </c>
       <c r="S18" s="8">
-        <f>L18+M18+RADIANS(N18)+O18+P18</f>
+        <f t="shared" si="2"/>
         <v>0.25814183216165254</v>
       </c>
       <c r="T18" s="8">
-        <f>RADIANS(N18/$C$10)+O18/$B$10+P18/$B$10</f>
+        <f t="shared" si="3"/>
         <v>4.0106894885909314</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="8">
         <v>0.5</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1780,24 +1780,24 @@
         <v>5.06125331894045E-2</v>
       </c>
       <c r="Q19" s="8">
-        <f>G19+H19+RADIANS(I19)+J19+K19+L19+M19+RADIANS(N19)+O19+P19</f>
+        <f t="shared" si="0"/>
         <v>0.30858286647557887</v>
       </c>
       <c r="R19" s="8">
-        <f>RADIANS(I19/$C$10)+J19/$B$10+K19/$B$10+RADIANS(N19/$C$10)+O19/$B$10+P19/$B$10</f>
+        <f t="shared" si="1"/>
         <v>5.3889610566438026</v>
       </c>
       <c r="S19" s="8">
-        <f>L19+M19+RADIANS(N19)+O19+P19</f>
+        <f t="shared" si="2"/>
         <v>0.28349630362025197</v>
       </c>
       <c r="T19" s="8">
-        <f>RADIANS(N19/$C$10)+O19/$B$10+P19/$B$10</f>
+        <f t="shared" si="3"/>
         <v>4.859020721487779</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="8">
         <v>0.5</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1843,24 +1843,24 @@
         <v>5.6258820440326797E-2</v>
       </c>
       <c r="Q20" s="8">
-        <f>G20+H20+RADIANS(I20)+J20+K20+L20+M20+RADIANS(N20)+O20+P20</f>
+        <f t="shared" si="0"/>
         <v>0.33623980973983186</v>
       </c>
       <c r="R20" s="8">
-        <f>RADIANS(I20/$C$10)+J20/$B$10+K20/$B$10+RADIANS(N20/$C$10)+O20/$B$10+P20/$B$10</f>
+        <f t="shared" si="1"/>
         <v>6.0903259338117017</v>
       </c>
       <c r="S20" s="8">
-        <f>L20+M20+RADIANS(N20)+O20+P20</f>
+        <f t="shared" si="2"/>
         <v>0.30867587794938406</v>
       </c>
       <c r="T20" s="8">
-        <f>RADIANS(N20/$C$10)+O20/$B$10+P20/$B$10</f>
+        <f t="shared" si="3"/>
         <v>5.5055981227558313</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="8">
         <v>0.5</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1906,24 +1906,24 @@
         <v>6.3555272228647305E-2</v>
       </c>
       <c r="Q21" s="8">
-        <f>G21+H21+RADIANS(I21)+J21+K21+L21+M21+RADIANS(N21)+O21+P21</f>
+        <f t="shared" si="0"/>
         <v>0.36521445748568571</v>
       </c>
       <c r="R21" s="8">
-        <f>RADIANS(I21/$C$10)+J21/$B$10+K21/$B$10+RADIANS(N21/$C$10)+O21/$B$10+P21/$B$10</f>
+        <f t="shared" si="1"/>
         <v>6.7995933875081045</v>
       </c>
       <c r="S21" s="8">
-        <f>L21+M21+RADIANS(N21)+O21+P21</f>
+        <f t="shared" si="2"/>
         <v>0.33480294236602004</v>
       </c>
       <c r="T21" s="8">
-        <f>RADIANS(N21/$C$10)+O21/$B$10+P21/$B$10</f>
+        <f t="shared" si="3"/>
         <v>6.1539268446403081</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="8">
         <v>0.5</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.44</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1969,24 +1969,24 @@
         <v>7.0252018462454505E-2</v>
       </c>
       <c r="Q22" s="8">
-        <f>G22+H22+RADIANS(I22)+J22+K22+L22+M22+RADIANS(N22)+O22+P22</f>
+        <f t="shared" si="0"/>
         <v>0.39027295084513131</v>
       </c>
       <c r="R22" s="8">
-        <f>RADIANS(I22/$C$10)+J22/$B$10+K22/$B$10+RADIANS(N22/$C$10)+O22/$B$10+P22/$B$10</f>
+        <f t="shared" si="1"/>
         <v>7.4299211573460511</v>
       </c>
       <c r="S22" s="8">
-        <f>L22+M22+RADIANS(N22)+O22+P22</f>
+        <f t="shared" si="2"/>
         <v>0.35689129113162549</v>
       </c>
       <c r="T22" s="8">
-        <f>RADIANS(N22/$C$10)+O22/$B$10+P22/$B$10</f>
+        <f t="shared" si="3"/>
         <v>6.7204224822711289</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="8">
         <v>0.5</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -2032,24 +2032,24 @@
         <v>7.3954065663959706E-2</v>
       </c>
       <c r="Q23" s="8">
-        <f>G23+H23+RADIANS(I23)+J23+K23+L23+M23+RADIANS(N23)+O23+P23</f>
+        <f t="shared" si="0"/>
         <v>0.40748673107374644</v>
       </c>
       <c r="R23" s="8">
-        <f>RADIANS(I23/$C$10)+J23/$B$10+K23/$B$10+RADIANS(N23/$C$10)+O23/$B$10+P23/$B$10</f>
+        <f t="shared" si="1"/>
         <v>7.8891996080262299</v>
       </c>
       <c r="S23" s="8">
-        <f>L23+M23+RADIANS(N23)+O23+P23</f>
+        <f t="shared" si="2"/>
         <v>0.37120287444389499</v>
       </c>
       <c r="T23" s="8">
-        <f>RADIANS(N23/$C$10)+O23/$B$10+P23/$B$10</f>
+        <f t="shared" si="3"/>
         <v>7.1150235028145081</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="8">
         <v>0.5</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.52</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -2095,24 +2095,24 @@
         <v>7.7638645909396606E-2</v>
       </c>
       <c r="Q24" s="8">
-        <f>G24+H24+RADIANS(I24)+J24+K24+L24+M24+RADIANS(N24)+O24+P24</f>
+        <f t="shared" si="0"/>
         <v>0.42580355263908487</v>
       </c>
       <c r="R24" s="8">
-        <f>RADIANS(I24/$C$10)+J24/$B$10+K24/$B$10+RADIANS(N24/$C$10)+O24/$B$10+P24/$B$10</f>
+        <f t="shared" si="1"/>
         <v>8.3075683405352905</v>
       </c>
       <c r="S24" s="8">
-        <f>L24+M24+RADIANS(N24)+O24+P24</f>
+        <f t="shared" si="2"/>
         <v>0.38640776575366975</v>
       </c>
       <c r="T24" s="8">
-        <f>RADIANS(N24/$C$10)+O24/$B$10+P24/$B$10</f>
+        <f t="shared" si="3"/>
         <v>7.466938724136063</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="8">
         <v>0.5</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -2158,24 +2158,24 @@
         <v>8.1427956960707898E-2</v>
       </c>
       <c r="Q25" s="8">
-        <f>G25+H25+RADIANS(I25)+J25+K25+L25+M25+RADIANS(N25)+O25+P25</f>
+        <f t="shared" si="0"/>
         <v>0.43989280349074977</v>
       </c>
       <c r="R25" s="8">
-        <f>RADIANS(I25/$C$10)+J25/$B$10+K25/$B$10+RADIANS(N25/$C$10)+O25/$B$10+P25/$B$10</f>
+        <f t="shared" si="1"/>
         <v>8.6945852177413077</v>
       </c>
       <c r="S25" s="8">
-        <f>L25+M25+RADIANS(N25)+O25+P25</f>
+        <f t="shared" si="2"/>
         <v>0.39747566735668338</v>
       </c>
       <c r="T25" s="8">
-        <f>RADIANS(N25/$C$10)+O25/$B$10+P25/$B$10</f>
+        <f t="shared" si="3"/>
         <v>7.7876822513629147</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="8">
         <v>0.5</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -2221,24 +2221,24 @@
         <v>8.4562268132209503E-2</v>
       </c>
       <c r="Q26" s="8">
-        <f>G26+H26+RADIANS(I26)+J26+K26+L26+M26+RADIANS(N26)+O26+P26</f>
+        <f t="shared" si="0"/>
         <v>0.45366924471342246</v>
       </c>
       <c r="R26" s="8">
-        <f>RADIANS(I26/$C$10)+J26/$B$10+K26/$B$10+RADIANS(N26/$C$10)+O26/$B$10+P26/$B$10</f>
+        <f t="shared" si="1"/>
         <v>9.0261055285996452</v>
       </c>
       <c r="S26" s="8">
-        <f>L26+M26+RADIANS(N26)+O26+P26</f>
+        <f t="shared" si="2"/>
         <v>0.40813514862012273</v>
       </c>
       <c r="T26" s="8">
-        <f>RADIANS(N26/$C$10)+O26/$B$10+P26/$B$10</f>
+        <f t="shared" si="3"/>
         <v>8.0523131082609787</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="8">
         <v>0.5</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.64</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -2284,24 +2284,24 @@
         <v>8.7217065931128906E-2</v>
       </c>
       <c r="Q27" s="8">
-        <f>G27+H27+RADIANS(I27)+J27+K27+L27+M27+RADIANS(N27)+O27+P27</f>
+        <f t="shared" si="0"/>
         <v>0.46443851657204038</v>
       </c>
       <c r="R27" s="8">
-        <f>RADIANS(I27/$C$10)+J27/$B$10+K27/$B$10+RADIANS(N27/$C$10)+O27/$B$10+P27/$B$10</f>
+        <f t="shared" si="1"/>
         <v>9.3143608862326559</v>
       </c>
       <c r="S27" s="8">
-        <f>L27+M27+RADIANS(N27)+O27+P27</f>
+        <f t="shared" si="2"/>
         <v>0.41585206955007303</v>
       </c>
       <c r="T27" s="8">
-        <f>RADIANS(N27/$C$10)+O27/$B$10+P27/$B$10</f>
+        <f t="shared" si="3"/>
         <v>8.2741374017962759</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="8">
         <v>0.5</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.68</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -2347,24 +2347,24 @@
         <v>8.9478119980475099E-2</v>
       </c>
       <c r="Q28" s="8">
-        <f>G28+H28+RADIANS(I28)+J28+K28+L28+M28+RADIANS(N28)+O28+P28</f>
+        <f t="shared" si="0"/>
         <v>0.47301914707864018</v>
       </c>
       <c r="R28" s="8">
-        <f>RADIANS(I28/$C$10)+J28/$B$10+K28/$B$10+RADIANS(N28/$C$10)+O28/$B$10+P28/$B$10</f>
+        <f t="shared" si="1"/>
         <v>9.5676379167449834</v>
       </c>
       <c r="S28" s="8">
-        <f>L28+M28+RADIANS(N28)+O28+P28</f>
+        <f t="shared" si="2"/>
         <v>0.42143985512399934</v>
       </c>
       <c r="T28" s="8">
-        <f>RADIANS(N28/$C$10)+O28/$B$10+P28/$B$10</f>
+        <f t="shared" si="3"/>
         <v>8.4615995169000424</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="8">
         <v>0.5</v>
       </c>
@@ -2410,24 +2410,24 @@
         <v>9.1187305469387997E-2</v>
       </c>
       <c r="Q29" s="8">
-        <f>G29+H29+RADIANS(I29)+J29+K29+L29+M29+RADIANS(N29)+O29+P29</f>
+        <f t="shared" si="0"/>
         <v>0.48126193949534279</v>
       </c>
       <c r="R29" s="8">
-        <f>RADIANS(I29/$C$10)+J29/$B$10+K29/$B$10+RADIANS(N29/$C$10)+O29/$B$10+P29/$B$10</f>
+        <f t="shared" si="1"/>
         <v>9.7860120377939719</v>
       </c>
       <c r="S29" s="8">
-        <f>L29+M29+RADIANS(N29)+O29+P29</f>
+        <f t="shared" si="2"/>
         <v>0.42663081331004138</v>
       </c>
       <c r="T29" s="8">
-        <f>RADIANS(N29/$C$10)+O29/$B$10+P29/$B$10</f>
+        <f t="shared" si="3"/>
         <v>8.6137963413132397</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="8">
         <v>0.5</v>
       </c>
@@ -2473,24 +2473,24 @@
         <v>9.2541762253916401E-2</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" ref="Q30:Q77" si="1">G30+H30+RADIANS(I30)+J30+K30+L30+M30+RADIANS(N30)+O30+P30</f>
+        <f t="shared" ref="Q30:Q77" si="5">G30+H30+RADIANS(I30)+J30+K30+L30+M30+RADIANS(N30)+O30+P30</f>
         <v>0.48708892418703598</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" ref="R30:R77" si="2">RADIANS(I30/$C$10)+J30/$B$10+K30/$B$10+RADIANS(N30/$C$10)+O30/$B$10+P30/$B$10</f>
+        <f t="shared" ref="R30:R77" si="6">RADIANS(I30/$C$10)+J30/$B$10+K30/$B$10+RADIANS(N30/$C$10)+O30/$B$10+P30/$B$10</f>
         <v>9.9733256465384059</v>
       </c>
       <c r="S30" s="8">
-        <f t="shared" ref="S30:S77" si="3">L30+M30+RADIANS(N30)+O30+P30</f>
+        <f t="shared" ref="S30:S77" si="7">L30+M30+RADIANS(N30)+O30+P30</f>
         <v>0.42949965933711975</v>
       </c>
       <c r="T30" s="8">
-        <f t="shared" ref="T30:T77" si="4">RADIANS(N30/$C$10)+O30/$B$10+P30/$B$10</f>
+        <f t="shared" ref="T30:T77" si="8">RADIANS(N30/$C$10)+O30/$B$10+P30/$B$10</f>
         <v>8.7362529889788156</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="8">
         <v>0.5</v>
       </c>
@@ -2536,24 +2536,24 @@
         <v>9.3659506996687097E-2</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.49325231277323256</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.144443021625431</v>
       </c>
       <c r="S31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43264666025600051</v>
       </c>
       <c r="T31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.8417401993916833</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="8">
         <v>0.5</v>
       </c>
@@ -2599,24 +2599,24 @@
         <v>9.4559045855833093E-2</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.49874924347737271</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.298485679956791</v>
       </c>
       <c r="S32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43514860296915425</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9308136336933632</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="8">
         <v>0.5</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="H33">
         <v>1.5391437089351701E-2</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="15">
         <v>0.14811533087543699</v>
       </c>
       <c r="J33">
@@ -2652,7 +2652,7 @@
       <c r="M33">
         <v>9.83321517705983E-2</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="15">
         <v>1.60945108393171</v>
       </c>
       <c r="O33">
@@ -2662,24 +2662,24 @@
         <v>9.5321752145188399E-2</v>
       </c>
       <c r="Q33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.50408576891562018</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.439455692958818</v>
       </c>
       <c r="S33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43749368815905859</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.0070948931881762</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="7">
         <v>0.75</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -2725,24 +2725,24 @@
         <v>0.112628606403451</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3263112809215709</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16.362767550399823</v>
       </c>
       <c r="S34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1554751810028734</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.561635880732521</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="8">
         <v>0.75</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -2788,24 +2788,24 @@
         <v>8.8960730233031193E-2</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0368506312994332</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.72601881219623</v>
       </c>
       <c r="S35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.89826891720873525</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.430223109463007</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="8">
         <v>0.75</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -2851,24 +2851,24 @@
         <v>7.5447352009937796E-2</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.86676950426235155</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.472057176980393</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.74840488803874416</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6819332613261899</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="8">
         <v>0.75</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -2914,24 +2914,24 @@
         <v>5.2565781678615003E-2</v>
       </c>
       <c r="Q37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.63319596606321515</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.7846322603703353</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.53931227961900174</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.3967496799044401</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="8">
         <v>0.75</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -2977,24 +2977,24 @@
         <v>4.2422152859750803E-2</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.48257179837074066</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.8519307433345737</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.41381700135160954</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.7734584099095798</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="9">
         <v>0.75</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -3040,24 +3040,24 @@
         <v>4.5901651301016401E-2</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.43037391626879556</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.2926741090117835</v>
       </c>
       <c r="S39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.37409147591851932</v>
       </c>
       <c r="T39" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.3638868484823643</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="8">
         <v>0.75</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -3103,24 +3103,24 @@
         <v>5.6196781991551099E-2</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.45703508474433596</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.155603355652203</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.40390071715218123</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.2431069386344404</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="8">
         <v>0.75</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -3166,24 +3166,24 @@
         <v>6.3930908406564693E-2</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.50313851996043668</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.0494740233290614</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.44759489483178749</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.0787891676462911</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="8">
         <v>0.75</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.44</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -3229,24 +3229,24 @@
         <v>7.17115408060853E-2</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.5305547263341962</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.900791806161541</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.47390688579217943</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8750265214015762</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="8">
         <v>0.75</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -3292,24 +3292,24 @@
         <v>7.9935412857380997E-2</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.57662414822393748</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.7863817141503837</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.51488564335370091</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6667061335304396</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="8">
         <v>0.75</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.52</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -3355,24 +3355,24 @@
         <v>8.73471463178144E-2</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.6270539678879099</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.6129919990660575</v>
       </c>
       <c r="S44" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.5585248747193865</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.3783499235654553</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="8">
         <v>0.75</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -3418,24 +3418,24 @@
         <v>9.32561009654337E-2</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.65928423698249727</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.303889508936988</v>
       </c>
       <c r="S45" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.58592245254319575</v>
       </c>
       <c r="T45" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9705846774234281</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="8">
         <v>0.75</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -3481,24 +3481,24 @@
         <v>9.8190039571729101E-2</v>
       </c>
       <c r="Q46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.68703331973270887</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.920101906094986</v>
       </c>
       <c r="S46" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.60897285472558627</v>
       </c>
       <c r="T46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.4881564534814427</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="8">
         <v>0.75</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.64</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -3544,24 +3544,24 @@
         <v>0.103015957124331</v>
       </c>
       <c r="Q47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.71209227312434054</v>
       </c>
       <c r="R47" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.496915433926574</v>
       </c>
       <c r="S47" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.62924199806293091</v>
       </c>
       <c r="T47" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.9636081564600385</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="8">
         <v>0.75</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>17</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.68</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -3607,24 +3607,24 @@
         <v>0.108480647611675</v>
       </c>
       <c r="Q48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.73994061943097467</v>
       </c>
       <c r="R48" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.080280677538239</v>
       </c>
       <c r="S48" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.65168024098309896</v>
       </c>
       <c r="T48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.43848582184396</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="8">
         <v>0.75</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -3670,24 +3670,24 @@
         <v>0.11336072953375199</v>
       </c>
       <c r="Q49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.75902790962248301</v>
       </c>
       <c r="R49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.606110837597646</v>
       </c>
       <c r="S49" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.66623956457403199</v>
       </c>
       <c r="T49" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.863169778161678</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="8">
         <v>0.75</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.76</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -3733,24 +3733,24 @@
         <v>0.11779204882946299</v>
       </c>
       <c r="Q50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.77552170478114135</v>
       </c>
       <c r="R50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13.092419966050123</v>
       </c>
       <c r="S50" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.67860985668408902</v>
       </c>
       <c r="T50" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.248378979483158</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="8">
         <v>0.75</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="E51" s="8" t="s">
@@ -3796,24 +3796,24 @@
         <v>0.121736594858259</v>
       </c>
       <c r="Q51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.79019831453210454</v>
       </c>
       <c r="R51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13.533154573995057</v>
       </c>
       <c r="S51" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.68879714895522293</v>
       </c>
       <c r="T51" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.586492584607321</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="8">
         <v>0.75</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.84</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -3859,24 +3859,24 @@
         <v>0.124774744877682</v>
       </c>
       <c r="Q52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.80341907527130596</v>
       </c>
       <c r="R52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13.920411391633252</v>
       </c>
       <c r="S52" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.69716564803021808</v>
       </c>
       <c r="T52" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.868045427376719</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="8">
         <v>0.75</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -3922,24 +3922,24 @@
         <v>0.12694781063635799</v>
       </c>
       <c r="Q53" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8152107341848509</v>
       </c>
       <c r="R53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14.253562807613189</v>
       </c>
       <c r="S53" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.70440969526018504</v>
       </c>
       <c r="T53" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.098077831755399</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="7">
         <v>1</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -3985,24 +3985,24 @@
         <v>0.181926211584298</v>
       </c>
       <c r="Q54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2878741205287372</v>
       </c>
       <c r="R54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>29.651372520844578</v>
       </c>
       <c r="S54" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.8959081627869367</v>
       </c>
       <c r="T54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>22.955406278552239</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="8">
         <v>1</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -4048,24 +4048,24 @@
         <v>0.16961401189733499</v>
       </c>
       <c r="Q55" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.0904188299648818</v>
       </c>
       <c r="R55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26.117551937002336</v>
       </c>
       <c r="S55" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.7445479713585736</v>
       </c>
       <c r="T55" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20.408336222528121</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="8">
         <v>1</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -4111,24 +4111,24 @@
         <v>0.161983890067394</v>
       </c>
       <c r="Q56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.880568064248809</v>
       </c>
       <c r="R56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23.272451566683941</v>
       </c>
       <c r="S56" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5719493172712979</v>
       </c>
       <c r="T56" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18.470058930671478</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="8">
         <v>1</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -4174,24 +4174,24 @@
         <v>0.144363885668404</v>
       </c>
       <c r="Q57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.6539568857851976</v>
       </c>
       <c r="R57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20.001009224130215</v>
       </c>
       <c r="S57" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3854164778801421</v>
       </c>
       <c r="T57" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16.044238396054478</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="8">
         <v>1</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -4237,24 +4237,24 @@
         <v>0.121633014047866</v>
       </c>
       <c r="Q58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3858116630138979</v>
       </c>
       <c r="R58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16.692955883210821</v>
       </c>
       <c r="S58" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1573134361982502</v>
       </c>
       <c r="T58" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.447453526309239</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="8">
         <v>1</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -4300,24 +4300,24 @@
         <v>0.100375920892655</v>
       </c>
       <c r="Q59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1681717180871634</v>
       </c>
       <c r="R59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13.807612597297096</v>
       </c>
       <c r="S59" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.9741928665272116</v>
       </c>
       <c r="T59" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.138075558436441</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="8">
         <v>1</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -4363,24 +4363,24 @@
         <v>7.6035634869365404E-2</v>
       </c>
       <c r="Q60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9491696526570389</v>
       </c>
       <c r="R60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.155872451473172</v>
       </c>
       <c r="S60" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.78449809473140519</v>
       </c>
       <c r="T60" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.912541409545776</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="8">
         <v>1</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>10</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -4426,24 +4426,24 @@
         <v>7.06647120285952E-2</v>
       </c>
       <c r="Q61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.84830998848190009</v>
       </c>
       <c r="R61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.5577806372487171</v>
       </c>
       <c r="S61" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.70240298770169085</v>
       </c>
       <c r="T61" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5812695695204475</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="9">
         <v>1</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>11</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.44</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -4489,24 +4489,24 @@
         <v>7.5263699637611106E-2</v>
       </c>
       <c r="Q62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.84154590900276272</v>
       </c>
       <c r="R62" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.4294949614010619</v>
       </c>
       <c r="S62" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.70245551340896495</v>
       </c>
       <c r="T62" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5159623927294037</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="8">
         <v>1</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -4552,24 +4552,24 @@
         <v>8.5757439804682298E-2</v>
       </c>
       <c r="Q63" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.89076316284410895</v>
       </c>
       <c r="R63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.36163011284747</v>
       </c>
       <c r="S63" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.76197887408799314</v>
       </c>
       <c r="T63" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4625956562929296</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="8">
         <v>1</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.52</v>
       </c>
       <c r="E64" s="8" t="s">
@@ -4615,24 +4615,24 @@
         <v>9.3397831303016599E-2</v>
       </c>
       <c r="Q64" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.96001525710849689</v>
       </c>
       <c r="R64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.24557937424505</v>
       </c>
       <c r="S64" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.82651870429350272</v>
       </c>
       <c r="T64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.2518732549169034</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="8">
         <v>1</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>14</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E65" s="8" t="s">
@@ -4678,24 +4678,24 @@
         <v>0.100553718598171</v>
       </c>
       <c r="Q65" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.006982073220166</v>
       </c>
       <c r="R65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.108505134789398</v>
       </c>
       <c r="S65" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.86787083755650429</v>
       </c>
       <c r="T65" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.005060237946999</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="8">
         <v>1</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -4741,24 +4741,24 @@
         <v>0.107314561630557</v>
       </c>
       <c r="Q66" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0604613911222873</v>
       </c>
       <c r="R66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.996606629297952</v>
       </c>
       <c r="S66" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.91245653964332474</v>
       </c>
       <c r="T66" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.732525509163438</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="8">
         <v>1</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>16</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.64</v>
       </c>
       <c r="E67" s="8" t="s">
@@ -4804,24 +4804,24 @@
         <v>0.11490177832804301</v>
       </c>
       <c r="Q67" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1191709822592979</v>
       </c>
       <c r="R67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13.947461243808361</v>
       </c>
       <c r="S67" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.96031433341246641</v>
       </c>
       <c r="T67" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.48883721333468</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="8">
         <v>1</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>17</v>
       </c>
       <c r="D68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.68</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -4867,24 +4867,24 @@
         <v>0.12175204391144601</v>
       </c>
       <c r="Q68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1621722253004414</v>
       </c>
       <c r="R68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14.777737139706471</v>
       </c>
       <c r="S68" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99474285445368238</v>
       </c>
       <c r="T68" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.142598929508921</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="8">
         <v>1</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>18</v>
       </c>
       <c r="D69" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -4930,24 +4930,24 @@
         <v>0.12874151790346899</v>
       </c>
       <c r="Q69" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1921607455262691</v>
       </c>
       <c r="R69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15.550691507749608</v>
       </c>
       <c r="S69" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0166491747174016</v>
       </c>
       <c r="T69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.742144054750479</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="8">
         <v>1</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>19</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.76</v>
       </c>
       <c r="E70" s="8" t="s">
@@ -4993,24 +4993,24 @@
         <v>0.13590214307972501</v>
       </c>
       <c r="Q70" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.221948340103548</v>
       </c>
       <c r="R70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16.320672855213292</v>
       </c>
       <c r="S70" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0374983557606856</v>
       </c>
       <c r="T70" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.324931654127079</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="8">
         <v>1</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>20</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="E71" s="8" t="s">
@@ -5056,24 +5056,24 @@
         <v>0.14185700639971799</v>
       </c>
       <c r="Q71" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2430943423135565</v>
       </c>
       <c r="R71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16.992528399880996</v>
       </c>
       <c r="S71" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0524776827001374</v>
       </c>
       <c r="T71" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.83257626033876</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="8">
         <v>1</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.84</v>
       </c>
       <c r="E72" s="8" t="s">
@@ -5119,24 +5119,24 @@
         <v>0.14543070134132799</v>
       </c>
       <c r="Q72" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.266990752257432</v>
       </c>
       <c r="R72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17.534284482105186</v>
       </c>
       <c r="S72" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0703415820608397</v>
       </c>
       <c r="T72" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.22143202880164</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="8">
         <v>1</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>22</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
       <c r="E73" s="8" t="s">
@@ -5182,24 +5182,24 @@
         <v>0.14890303177005099</v>
       </c>
       <c r="Q73" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2827641697993997</v>
       </c>
       <c r="R73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18.020229090516352</v>
       </c>
       <c r="S73" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0800428354922864</v>
       </c>
       <c r="T73" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.576009404503878</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="8">
         <v>1</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>23</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.92</v>
       </c>
       <c r="E74" s="8" t="s">
@@ -5245,24 +5245,24 @@
         <v>0.15314574861811101</v>
       </c>
       <c r="Q74" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3099438703972044</v>
       </c>
       <c r="R74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18.501264121978519</v>
       </c>
       <c r="S74" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1001074164654807</v>
       </c>
       <c r="T74" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.934036810867241</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="8">
         <v>1</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>24</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
       <c r="E75" s="8" t="s">
@@ -5308,24 +5308,24 @@
         <v>0.15743602836023701</v>
       </c>
       <c r="Q75" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3329374975412023</v>
       </c>
       <c r="R75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18.99240028870382</v>
       </c>
       <c r="S75" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1163047897849696</v>
       </c>
       <c r="T75" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.282020396162</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B76" s="7">
@@ -5335,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -5373,24 +5373,24 @@
         <v>5.3549081357138699E-2</v>
       </c>
       <c r="Q76" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.45229589752990151</v>
       </c>
       <c r="R76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.1931347850740108</v>
       </c>
       <c r="S76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.40048495349472291</v>
       </c>
       <c r="T76" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.3607194201225958</v>
       </c>
     </row>
     <row r="77" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="6">
         <v>0.5</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="E77" s="8" t="s">
@@ -5436,51 +5436,51 @@
         <v>3.5928398822544901E-2</v>
       </c>
       <c r="Q77" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.33189559627039733</v>
       </c>
       <c r="R77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.4596259385580179</v>
       </c>
       <c r="S77" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.29433262626940265</v>
       </c>
       <c r="T77" s="8">
+        <f t="shared" si="8"/>
+        <v>3.8222776250725916</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="18"/>
+      <c r="B78" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C78" s="16">
+        <v>5</v>
+      </c>
+      <c r="D78" s="16">
         <f t="shared" si="4"/>
-        <v>3.8222776250725916</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
-      <c r="B78" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="C78" s="19">
-        <v>5</v>
-      </c>
-      <c r="D78" s="19">
-        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19">
+      <c r="F78" s="16"/>
+      <c r="G78" s="16">
         <v>4.9002949092922703E-3</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="16">
         <v>4.9359976584529303E-3</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="16">
         <v>0.41791791184808302</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J78" s="16">
         <v>7.7144758375281702E-3</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="16">
         <v>5.7802915524868097E-3</v>
       </c>
       <c r="L78" s="9">
@@ -5489,7 +5489,7 @@
       <c r="M78" s="9">
         <v>3.3621225359999903E-2</v>
       </c>
-      <c r="N78" s="19">
+      <c r="N78" s="16">
         <v>4.7949538333510899</v>
       </c>
       <c r="O78" s="9">
@@ -5499,24 +5499,24 @@
         <v>2.5318874841837698E-2</v>
       </c>
       <c r="Q78" s="9">
-        <f>G78+H78+RADIANS(I78)+J78+K78+L78+M78+RADIANS(N78)+O78+P78</f>
+        <f t="shared" ref="Q78:Q95" si="9">G78+H78+RADIANS(I78)+J78+K78+L78+M78+RADIANS(N78)+O78+P78</f>
         <v>0.24706450973517038</v>
       </c>
       <c r="R78" s="9">
-        <f>RADIANS(I78/$C$10)+J78/$B$10+K78/$B$10+RADIANS(N78/$C$10)+O78/$B$10+P78/$B$10</f>
+        <f t="shared" ref="R78:R95" si="10">RADIANS(I78/$C$10)+J78/$B$10+K78/$B$10+RADIANS(N78/$C$10)+O78/$B$10+P78/$B$10</f>
         <v>3.2329540993558386</v>
       </c>
       <c r="S78" s="9">
-        <f>L78+M78+RADIANS(N78)+O78+P78</f>
+        <f t="shared" ref="S78:S95" si="11">L78+M78+RADIANS(N78)+O78+P78</f>
         <v>0.21643940621260171</v>
       </c>
       <c r="T78" s="9">
-        <f>RADIANS(N78/$C$10)+O78/$B$10+P78/$B$10</f>
+        <f t="shared" ref="T78:T95" si="12">RADIANS(N78/$C$10)+O78/$B$10+P78/$B$10</f>
         <v>2.6902457863293159</v>
       </c>
     </row>
     <row r="79" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="6">
         <v>0.5</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="E79" s="8" t="s">
@@ -5562,24 +5562,24 @@
         <v>3.2279994235901298E-2</v>
       </c>
       <c r="Q79" s="8">
-        <f>G79+H79+RADIANS(I79)+J79+K79+L79+M79+RADIANS(N79)+O79+P79</f>
+        <f t="shared" si="9"/>
         <v>0.25324433174278571</v>
       </c>
       <c r="R79" s="8">
-        <f>RADIANS(I79/$C$10)+J79/$B$10+K79/$B$10+RADIANS(N79/$C$10)+O79/$B$10+P79/$B$10</f>
+        <f t="shared" si="10"/>
         <v>3.7302805560929722</v>
       </c>
       <c r="S79" s="8">
-        <f>L79+M79+RADIANS(N79)+O79+P79</f>
+        <f t="shared" si="11"/>
         <v>0.22409033649917881</v>
       </c>
       <c r="T79" s="8">
-        <f>RADIANS(N79/$C$10)+O79/$B$10+P79/$B$10</f>
+        <f t="shared" si="12"/>
         <v>3.2018061802368161</v>
       </c>
     </row>
     <row r="80" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="6">
         <v>0.5</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E80" s="8" t="s">
@@ -5625,24 +5625,24 @@
         <v>4.1276573827310398E-2</v>
       </c>
       <c r="Q80" s="8">
-        <f>G80+H80+RADIANS(I80)+J80+K80+L80+M80+RADIANS(N80)+O80+P80</f>
+        <f t="shared" si="9"/>
         <v>0.277845157557574</v>
       </c>
       <c r="R80" s="8">
-        <f>RADIANS(I80/$C$10)+J80/$B$10+K80/$B$10+RADIANS(N80/$C$10)+O80/$B$10+P80/$B$10</f>
+        <f t="shared" si="10"/>
         <v>4.5961828366979072</v>
       </c>
       <c r="S80" s="8">
-        <f>L80+M80+RADIANS(N80)+O80+P80</f>
+        <f t="shared" si="11"/>
         <v>0.24917400878073484</v>
       </c>
       <c r="T80" s="8">
-        <f>RADIANS(N80/$C$10)+O80/$B$10+P80/$B$10</f>
+        <f t="shared" si="12"/>
         <v>4.0590746756043039</v>
       </c>
     </row>
     <row r="81" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="6">
         <v>0.5</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
       <c r="E81" s="8" t="s">
@@ -5688,24 +5688,24 @@
         <v>5.0160410644375097E-2</v>
       </c>
       <c r="Q81" s="8">
-        <f>G81+H81+RADIANS(I81)+J81+K81+L81+M81+RADIANS(N81)+O81+P81</f>
+        <f t="shared" si="9"/>
         <v>0.30783216950825232</v>
       </c>
       <c r="R81" s="8">
-        <f>RADIANS(I81/$C$10)+J81/$B$10+K81/$B$10+RADIANS(N81/$C$10)+O81/$B$10+P81/$B$10</f>
+        <f t="shared" si="10"/>
         <v>5.4168290540753263</v>
       </c>
       <c r="S81" s="8">
-        <f>L81+M81+RADIANS(N81)+O81+P81</f>
+        <f t="shared" si="11"/>
         <v>0.27774746594321803</v>
       </c>
       <c r="T81" s="8">
-        <f>RADIANS(N81/$C$10)+O81/$B$10+P81/$B$10</f>
+        <f t="shared" si="12"/>
         <v>4.8425759428007913</v>
       </c>
     </row>
     <row r="82" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="6">
         <v>0.5</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="E82" s="8" t="s">
@@ -5751,24 +5751,24 @@
         <v>5.5777923470030397E-2</v>
       </c>
       <c r="Q82" s="8">
-        <f>G82+H82+RADIANS(I82)+J82+K82+L82+M82+RADIANS(N82)+O82+P82</f>
+        <f t="shared" si="9"/>
         <v>0.33236537498224239</v>
       </c>
       <c r="R82" s="8">
-        <f>RADIANS(I82/$C$10)+J82/$B$10+K82/$B$10+RADIANS(N82/$C$10)+O82/$B$10+P82/$B$10</f>
+        <f t="shared" si="10"/>
         <v>6.036092011650763</v>
       </c>
       <c r="S82" s="8">
-        <f>L82+M82+RADIANS(N82)+O82+P82</f>
+        <f t="shared" si="11"/>
         <v>0.29998641231376799</v>
       </c>
       <c r="T82" s="8">
-        <f>RADIANS(N82/$C$10)+O82/$B$10+P82/$B$10</f>
+        <f t="shared" si="12"/>
         <v>5.4100872858990714</v>
       </c>
     </row>
     <row r="83" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="6">
         <v>0.5</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="E83" s="8" t="s">
@@ -5814,24 +5814,24 @@
         <v>6.14855424899695E-2</v>
       </c>
       <c r="Q83" s="8">
-        <f>G83+H83+RADIANS(I83)+J83+K83+L83+M83+RADIANS(N83)+O83+P83</f>
+        <f t="shared" si="9"/>
         <v>0.35788914970457752</v>
       </c>
       <c r="R83" s="8">
-        <f>RADIANS(I83/$C$10)+J83/$B$10+K83/$B$10+RADIANS(N83/$C$10)+O83/$B$10+P83/$B$10</f>
+        <f t="shared" si="10"/>
         <v>6.6487776605800546</v>
       </c>
       <c r="S83" s="8">
-        <f>L83+M83+RADIANS(N83)+O83+P83</f>
+        <f t="shared" si="11"/>
         <v>0.32287075821487116</v>
       </c>
       <c r="T83" s="8">
-        <f>RADIANS(N83/$C$10)+O83/$B$10+P83/$B$10</f>
+        <f t="shared" si="12"/>
         <v>5.9648771340972475</v>
       </c>
     </row>
     <row r="84" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="6">
         <v>0.5</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>11</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.44</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -5877,24 +5877,24 @@
         <v>6.8435807079200994E-2</v>
       </c>
       <c r="Q84" s="8">
-        <f>G84+H84+RADIANS(I84)+J84+K84+L84+M84+RADIANS(N84)+O84+P84</f>
+        <f t="shared" si="9"/>
         <v>0.3854562315144755</v>
       </c>
       <c r="R84" s="8">
-        <f>RADIANS(I84/$C$10)+J84/$B$10+K84/$B$10+RADIANS(N84/$C$10)+O84/$B$10+P84/$B$10</f>
+        <f t="shared" si="10"/>
         <v>7.330717420847817</v>
       </c>
       <c r="S84" s="8">
-        <f>L84+M84+RADIANS(N84)+O84+P84</f>
+        <f t="shared" si="11"/>
         <v>0.34733292159698631</v>
       </c>
       <c r="T84" s="8">
-        <f>RADIANS(N84/$C$10)+O84/$B$10+P84/$B$10</f>
+        <f t="shared" si="12"/>
         <v>6.5844722232202475</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="6">
         <v>0.5</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
       <c r="E85" s="8" t="s">
@@ -5940,24 +5940,24 @@
         <v>7.3133643340414306E-2</v>
       </c>
       <c r="Q85" s="8">
-        <f>G85+H85+RADIANS(I85)+J85+K85+L85+M85+RADIANS(N85)+O85+P85</f>
+        <f t="shared" si="9"/>
         <v>0.41155959798396924</v>
       </c>
       <c r="R85" s="8">
-        <f>RADIANS(I85/$C$10)+J85/$B$10+K85/$B$10+RADIANS(N85/$C$10)+O85/$B$10+P85/$B$10</f>
+        <f t="shared" si="10"/>
         <v>7.8545195816206572</v>
       </c>
       <c r="S85" s="8">
-        <f>L85+M85+RADIANS(N85)+O85+P85</f>
+        <f t="shared" si="11"/>
         <v>0.37031383545752139</v>
       </c>
       <c r="T85" s="8">
-        <f>RADIANS(N85/$C$10)+O85/$B$10+P85/$B$10</f>
+        <f t="shared" si="12"/>
         <v>7.0448604394188514</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="6">
         <v>0.5</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.52</v>
       </c>
       <c r="E86" s="8" t="s">
@@ -6003,24 +6003,24 @@
         <v>7.7298516317561294E-2</v>
       </c>
       <c r="Q86" s="8">
-        <f>G86+H86+RADIANS(I86)+J86+K86+L86+M86+RADIANS(N86)+O86+P86</f>
+        <f t="shared" si="9"/>
         <v>0.43469965166926439</v>
       </c>
       <c r="R86" s="8">
-        <f>RADIANS(I86/$C$10)+J86/$B$10+K86/$B$10+RADIANS(N86/$C$10)+O86/$B$10+P86/$B$10</f>
+        <f t="shared" si="10"/>
         <v>8.3177098032809571</v>
       </c>
       <c r="S86" s="8">
-        <f>L86+M86+RADIANS(N86)+O86+P86</f>
+        <f t="shared" si="11"/>
         <v>0.39046957208582828</v>
       </c>
       <c r="T86" s="8">
-        <f>RADIANS(N86/$C$10)+O86/$B$10+P86/$B$10</f>
+        <f t="shared" si="12"/>
         <v>7.4447459222579315</v>
       </c>
     </row>
     <row r="87" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="6">
         <v>0.5</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>14</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E87" s="8" t="s">
@@ -6066,24 +6066,24 @@
         <v>8.1070382653951195E-2</v>
       </c>
       <c r="Q87" s="8">
-        <f>G87+H87+RADIANS(I87)+J87+K87+L87+M87+RADIANS(N87)+O87+P87</f>
+        <f t="shared" si="9"/>
         <v>0.45536600087006796</v>
       </c>
       <c r="R87" s="8">
-        <f>RADIANS(I87/$C$10)+J87/$B$10+K87/$B$10+RADIANS(N87/$C$10)+O87/$B$10+P87/$B$10</f>
+        <f t="shared" si="10"/>
         <v>8.7336992217593448</v>
       </c>
       <c r="S87" s="8">
-        <f>L87+M87+RADIANS(N87)+O87+P87</f>
+        <f t="shared" si="11"/>
         <v>0.40794870512207315</v>
       </c>
       <c r="T87" s="8">
-        <f>RADIANS(N87/$C$10)+O87/$B$10+P87/$B$10</f>
+        <f t="shared" si="12"/>
         <v>7.7953794817921276</v>
       </c>
     </row>
     <row r="88" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="6">
         <v>0.5</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>15</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="E88" s="8" t="s">
@@ -6129,24 +6129,24 @@
         <v>8.44813939089505E-2</v>
       </c>
       <c r="Q88" s="8">
-        <f>G88+H88+RADIANS(I88)+J88+K88+L88+M88+RADIANS(N88)+O88+P88</f>
+        <f t="shared" si="9"/>
         <v>0.47377589689936356</v>
       </c>
       <c r="R88" s="8">
-        <f>RADIANS(I88/$C$10)+J88/$B$10+K88/$B$10+RADIANS(N88/$C$10)+O88/$B$10+P88/$B$10</f>
+        <f t="shared" si="10"/>
         <v>9.1073397918526737</v>
       </c>
       <c r="S88" s="8">
-        <f>L88+M88+RADIANS(N88)+O88+P88</f>
+        <f t="shared" si="11"/>
         <v>0.4231545687462096</v>
       </c>
       <c r="T88" s="8">
-        <f>RADIANS(N88/$C$10)+O88/$B$10+P88/$B$10</f>
+        <f t="shared" si="12"/>
         <v>8.1038760046323794</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="6">
         <v>0.5</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>16</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.64</v>
       </c>
       <c r="E89" s="8" t="s">
@@ -6192,24 +6192,24 @@
         <v>8.7492117959486193E-2</v>
       </c>
       <c r="Q89" s="8">
-        <f>G89+H89+RADIANS(I89)+J89+K89+L89+M89+RADIANS(N89)+O89+P89</f>
+        <f t="shared" si="9"/>
         <v>0.49024534009473486</v>
       </c>
       <c r="R89" s="8">
-        <f>RADIANS(I89/$C$10)+J89/$B$10+K89/$B$10+RADIANS(N89/$C$10)+O89/$B$10+P89/$B$10</f>
+        <f t="shared" si="10"/>
         <v>9.4425950015696341</v>
       </c>
       <c r="S89" s="8">
-        <f>L89+M89+RADIANS(N89)+O89+P89</f>
+        <f t="shared" si="11"/>
         <v>0.43627736528820243</v>
       </c>
       <c r="T89" s="8">
-        <f>RADIANS(N89/$C$10)+O89/$B$10+P89/$B$10</f>
+        <f t="shared" si="12"/>
         <v>8.3725489613836874</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="16"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="6">
         <v>0.5</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>17</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.68</v>
       </c>
       <c r="E90" s="8" t="s">
@@ -6255,24 +6255,24 @@
         <v>9.0012108076225505E-2</v>
       </c>
       <c r="Q90" s="8">
-        <f>G90+H90+RADIANS(I90)+J90+K90+L90+M90+RADIANS(N90)+O90+P90</f>
+        <f t="shared" si="9"/>
         <v>0.50491054073386255</v>
       </c>
       <c r="R90" s="8">
-        <f>RADIANS(I90/$C$10)+J90/$B$10+K90/$B$10+RADIANS(N90/$C$10)+O90/$B$10+P90/$B$10</f>
+        <f t="shared" si="10"/>
         <v>9.7401170951874896</v>
       </c>
       <c r="S90" s="8">
-        <f>L90+M90+RADIANS(N90)+O90+P90</f>
+        <f t="shared" si="11"/>
         <v>0.44758665738791759</v>
       </c>
       <c r="T90" s="8">
-        <f>RADIANS(N90/$C$10)+O90/$B$10+P90/$B$10</f>
+        <f t="shared" si="12"/>
         <v>8.6032380412543006</v>
       </c>
     </row>
     <row r="91" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="6">
         <v>0.5</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>18</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
       <c r="E91" s="8" t="s">
@@ -6318,24 +6318,24 @@
         <v>9.1708252291725398E-2</v>
       </c>
       <c r="Q91" s="8">
-        <f>G91+H91+RADIANS(I91)+J91+K91+L91+M91+RADIANS(N91)+O91+P91</f>
+        <f t="shared" si="9"/>
         <v>0.51727871504990885</v>
       </c>
       <c r="R91" s="8">
-        <f>RADIANS(I91/$C$10)+J91/$B$10+K91/$B$10+RADIANS(N91/$C$10)+O91/$B$10+P91/$B$10</f>
+        <f t="shared" si="10"/>
         <v>9.9826223626557038</v>
       </c>
       <c r="S91" s="8">
-        <f>L91+M91+RADIANS(N91)+O91+P91</f>
+        <f t="shared" si="11"/>
         <v>0.45664835260487147</v>
       </c>
       <c r="T91" s="8">
-        <f>RADIANS(N91/$C$10)+O91/$B$10+P91/$B$10</f>
+        <f t="shared" si="12"/>
         <v>8.7790393537772555</v>
       </c>
     </row>
     <row r="92" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="6">
         <v>0.5</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>19</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.76</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -6381,24 +6381,24 @@
         <v>9.3192937892066605E-2</v>
       </c>
       <c r="Q92" s="8">
-        <f>G92+H92+RADIANS(I92)+J92+K92+L92+M92+RADIANS(N92)+O92+P92</f>
+        <f t="shared" si="9"/>
         <v>0.52844114270642051</v>
       </c>
       <c r="R92" s="8">
-        <f>RADIANS(I92/$C$10)+J92/$B$10+K92/$B$10+RADIANS(N92/$C$10)+O92/$B$10+P92/$B$10</f>
+        <f t="shared" si="10"/>
         <v>10.201772525324643</v>
       </c>
       <c r="S92" s="8">
-        <f>L92+M92+RADIANS(N92)+O92+P92</f>
+        <f t="shared" si="11"/>
         <v>0.46446948685169476</v>
       </c>
       <c r="T92" s="8">
-        <f>RADIANS(N92/$C$10)+O92/$B$10+P92/$B$10</f>
+        <f t="shared" si="12"/>
         <v>8.9322658313477845</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="6">
         <v>0.5</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>20</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="E93" s="8" t="s">
@@ -6444,24 +6444,24 @@
         <v>9.4477712347599899E-2</v>
       </c>
       <c r="Q93" s="8">
-        <f>G93+H93+RADIANS(I93)+J93+K93+L93+M93+RADIANS(N93)+O93+P93</f>
+        <f t="shared" si="9"/>
         <v>0.53843550095449233</v>
       </c>
       <c r="R93" s="8">
-        <f>RADIANS(I93/$C$10)+J93/$B$10+K93/$B$10+RADIANS(N93/$C$10)+O93/$B$10+P93/$B$10</f>
+        <f t="shared" si="10"/>
         <v>10.397938061159817</v>
       </c>
       <c r="S93" s="8">
-        <f>L93+M93+RADIANS(N93)+O93+P93</f>
+        <f t="shared" si="11"/>
         <v>0.471122730728948</v>
       </c>
       <c r="T93" s="8">
-        <f>RADIANS(N93/$C$10)+O93/$B$10+P93/$B$10</f>
+        <f t="shared" si="12"/>
         <v>9.0623525673279151</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="16"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="6">
         <v>0.5</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>21</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.84</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -6507,24 +6507,24 @@
         <v>9.5810571630337404E-2</v>
       </c>
       <c r="Q94" s="8">
-        <f>G94+H94+RADIANS(I94)+J94+K94+L94+M94+RADIANS(N94)+O94+P94</f>
+        <f t="shared" si="9"/>
         <v>0.54782236402801909</v>
       </c>
       <c r="R94" s="8">
-        <f>RADIANS(I94/$C$10)+J94/$B$10+K94/$B$10+RADIANS(N94/$C$10)+O94/$B$10+P94/$B$10</f>
+        <f t="shared" si="10"/>
         <v>10.586708088130807</v>
       </c>
       <c r="S94" s="8">
-        <f>L94+M94+RADIANS(N94)+O94+P94</f>
+        <f t="shared" si="11"/>
         <v>0.47718293795686745</v>
       </c>
       <c r="T94" s="8">
-        <f>RADIANS(N94/$C$10)+O94/$B$10+P94/$B$10</f>
+        <f t="shared" si="12"/>
         <v>9.1857379594378958</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="16"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="6">
         <v>0.5</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>22</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
       <c r="E95" s="8" t="s">
@@ -6570,24 +6570,24 @@
         <v>9.7032541235781505E-2</v>
       </c>
       <c r="Q95" s="8">
-        <f>G95+H95+RADIANS(I95)+J95+K95+L95+M95+RADIANS(N95)+O95+P95</f>
+        <f t="shared" si="9"/>
         <v>0.55638869499728882</v>
       </c>
       <c r="R95" s="8">
-        <f>RADIANS(I95/$C$10)+J95/$B$10+K95/$B$10+RADIANS(N95/$C$10)+O95/$B$10+P95/$B$10</f>
+        <f t="shared" si="10"/>
         <v>10.760846262173272</v>
       </c>
       <c r="S95" s="8">
-        <f>L95+M95+RADIANS(N95)+O95+P95</f>
+        <f t="shared" si="11"/>
         <v>0.48243315955343746</v>
       </c>
       <c r="T95" s="8">
-        <f>RADIANS(N95/$C$10)+O95/$B$10+P95/$B$10</f>
+        <f t="shared" si="12"/>
         <v>9.2945042771410993</v>
       </c>
     </row>
     <row r="96" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="7">
         <v>0.75</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>3</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -6633,24 +6633,24 @@
         <v>0.106680413843243</v>
       </c>
       <c r="Q96" s="7">
-        <f t="shared" ref="Q96:Q137" si="5">G96+H96+RADIANS(I96)+J96+K96+L96+M96+RADIANS(N96)+O96+P96</f>
+        <f t="shared" ref="Q96:Q137" si="13">G96+H96+RADIANS(I96)+J96+K96+L96+M96+RADIANS(N96)+O96+P96</f>
         <v>1.3218678095489005</v>
       </c>
       <c r="R96" s="7">
-        <f t="shared" ref="R96:R137" si="6">RADIANS(I96/$C$10)+J96/$B$10+K96/$B$10+RADIANS(N96/$C$10)+O96/$B$10+P96/$B$10</f>
+        <f t="shared" ref="R96:R137" si="14">RADIANS(I96/$C$10)+J96/$B$10+K96/$B$10+RADIANS(N96/$C$10)+O96/$B$10+P96/$B$10</f>
         <v>14.959785315370556</v>
       </c>
       <c r="S96" s="7">
-        <f t="shared" ref="S96:S137" si="7">L96+M96+RADIANS(N96)+O96+P96</f>
+        <f t="shared" ref="S96:S137" si="15">L96+M96+RADIANS(N96)+O96+P96</f>
         <v>1.1267193217878866</v>
       </c>
       <c r="T96" s="7">
-        <f t="shared" ref="T96:T137" si="8">RADIANS(N96/$C$10)+O96/$B$10+P96/$B$10</f>
+        <f t="shared" ref="T96:T137" si="16">RADIANS(N96/$C$10)+O96/$B$10+P96/$B$10</f>
         <v>12.361028905230278</v>
       </c>
     </row>
     <row r="97" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="16"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="8">
         <v>0.75</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>4</v>
       </c>
       <c r="D97" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="E97" s="8" t="s">
@@ -6696,24 +6696,24 @@
         <v>8.7054798452211701E-2</v>
       </c>
       <c r="Q97" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.0008867345040493</v>
       </c>
       <c r="R97" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>11.446588556073722</v>
       </c>
       <c r="S97" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.8427576299747257</v>
       </c>
       <c r="T97" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.3647787950882275</v>
       </c>
     </row>
     <row r="98" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16"/>
+      <c r="A98" s="18"/>
       <c r="B98" s="8">
         <v>0.75</v>
       </c>
@@ -6759,24 +6759,24 @@
         <v>7.0884352284439706E-2</v>
       </c>
       <c r="Q98" s="8">
-        <f>G98+H98+RADIANS(I98)+J98+K98+L98+M98+RADIANS(N98)+O98+P98</f>
+        <f t="shared" ref="Q98:Q115" si="17">G98+H98+RADIANS(I98)+J98+K98+L98+M98+RADIANS(N98)+O98+P98</f>
         <v>0.81146190055525891</v>
       </c>
       <c r="R98" s="8">
-        <f>RADIANS(I98/$C$10)+J98/$B$10+K98/$B$10+RADIANS(N98/$C$10)+O98/$B$10+P98/$B$10</f>
+        <f t="shared" ref="R98:R115" si="18">RADIANS(I98/$C$10)+J98/$B$10+K98/$B$10+RADIANS(N98/$C$10)+O98/$B$10+P98/$B$10</f>
         <v>9.4230795570217154</v>
       </c>
       <c r="S98" s="8">
-        <f>L98+M98+RADIANS(N98)+O98+P98</f>
+        <f t="shared" ref="S98:S115" si="19">L98+M98+RADIANS(N98)+O98+P98</f>
         <v>0.67584099984923407</v>
       </c>
       <c r="T98" s="8">
-        <f>RADIANS(N98/$C$10)+O98/$B$10+P98/$B$10</f>
+        <f t="shared" ref="T98:T115" si="20">RADIANS(N98/$C$10)+O98/$B$10+P98/$B$10</f>
         <v>7.6178691102347074</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="16"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="8">
         <v>0.75</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="E99" s="8" t="s">
@@ -6822,24 +6822,24 @@
         <v>5.4946267808369899E-2</v>
       </c>
       <c r="Q99" s="8">
-        <f>G99+H99+RADIANS(I99)+J99+K99+L99+M99+RADIANS(N99)+O99+P99</f>
+        <f t="shared" si="17"/>
         <v>0.61035062392050121</v>
       </c>
       <c r="R99" s="8">
-        <f>RADIANS(I99/$C$10)+J99/$B$10+K99/$B$10+RADIANS(N99/$C$10)+O99/$B$10+P99/$B$10</f>
+        <f t="shared" si="18"/>
         <v>7.4338013842381141</v>
       </c>
       <c r="S99" s="8">
-        <f>L99+M99+RADIANS(N99)+O99+P99</f>
+        <f t="shared" si="19"/>
         <v>0.50597547881514804</v>
       </c>
       <c r="T99" s="8">
-        <f>RADIANS(N99/$C$10)+O99/$B$10+P99/$B$10</f>
+        <f t="shared" si="20"/>
         <v>5.97476732265112</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A100" s="16"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="8">
         <v>0.75</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E100" s="8" t="s">
@@ -6885,38 +6885,38 @@
         <v>4.7975683679617798E-2</v>
       </c>
       <c r="Q100" s="8">
-        <f>G100+H100+RADIANS(I100)+J100+K100+L100+M100+RADIANS(N100)+O100+P100</f>
+        <f t="shared" si="17"/>
         <v>0.48303830163461092</v>
       </c>
       <c r="R100" s="8">
-        <f>RADIANS(I100/$C$10)+J100/$B$10+K100/$B$10+RADIANS(N100/$C$10)+O100/$B$10+P100/$B$10</f>
+        <f t="shared" si="18"/>
         <v>6.1835251252982788</v>
       </c>
       <c r="S100" s="8">
-        <f>L100+M100+RADIANS(N100)+O100+P100</f>
+        <f t="shared" si="19"/>
         <v>0.39908458209850339</v>
       </c>
       <c r="T100" s="8">
-        <f>RADIANS(N100/$C$10)+O100/$B$10+P100/$B$10</f>
+        <f t="shared" si="20"/>
         <v>4.9465770509069396</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A101" s="16"/>
-      <c r="B101" s="19">
+      <c r="A101" s="18"/>
+      <c r="B101" s="16">
         <v>0.75</v>
       </c>
-      <c r="C101" s="19">
+      <c r="C101" s="16">
         <v>8</v>
       </c>
-      <c r="D101" s="19">
-        <f t="shared" si="0"/>
+      <c r="D101" s="16">
+        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F101" s="19"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="9">
         <v>1.1422077675950101E-2</v>
       </c>
@@ -6932,13 +6932,13 @@
       <c r="K101" s="9">
         <v>1.2449149130879101E-2</v>
       </c>
-      <c r="L101" s="19">
+      <c r="L101" s="16">
         <v>5.2949547769999897E-2</v>
       </c>
       <c r="M101" s="9">
         <v>6.2501456738000005E-2</v>
       </c>
-      <c r="N101" s="19">
+      <c r="N101" s="16">
         <v>9.1184657095013897</v>
       </c>
       <c r="O101" s="9">
@@ -6948,24 +6948,24 @@
         <v>4.7779353826496597E-2</v>
       </c>
       <c r="Q101" s="9">
-        <f>G101+H101+RADIANS(I101)+J101+K101+L101+M101+RADIANS(N101)+O101+P101</f>
+        <f t="shared" si="17"/>
         <v>0.47330857948913674</v>
       </c>
       <c r="R101" s="9">
-        <f>RADIANS(I101/$C$10)+J101/$B$10+K101/$B$10+RADIANS(N101/$C$10)+O101/$B$10+P101/$B$10</f>
+        <f t="shared" si="18"/>
         <v>5.9809638520427733</v>
       </c>
       <c r="S101" s="9">
-        <f>L101+M101+RADIANS(N101)+O101+P101</f>
+        <f t="shared" si="19"/>
         <v>0.39231550269551985</v>
       </c>
       <c r="T101" s="9">
-        <f>RADIANS(N101/$C$10)+O101/$B$10+P101/$B$10</f>
+        <f t="shared" si="20"/>
         <v>4.7723488528051963</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="8">
         <v>0.75</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="E102" s="8" t="s">
@@ -7011,24 +7011,24 @@
         <v>5.8185136475091603E-2</v>
       </c>
       <c r="Q102" s="8">
-        <f>G102+H102+RADIANS(I102)+J102+K102+L102+M102+RADIANS(N102)+O102+P102</f>
+        <f t="shared" si="17"/>
         <v>0.52008313068440581</v>
       </c>
       <c r="R102" s="8">
-        <f>RADIANS(I102/$C$10)+J102/$B$10+K102/$B$10+RADIANS(N102/$C$10)+O102/$B$10+P102/$B$10</f>
+        <f t="shared" si="18"/>
         <v>6.8045549974807962</v>
       </c>
       <c r="S102" s="8">
-        <f>L102+M102+RADIANS(N102)+O102+P102</f>
+        <f t="shared" si="19"/>
         <v>0.43515351045866785</v>
       </c>
       <c r="T102" s="8">
-        <f>RADIANS(N102/$C$10)+O102/$B$10+P102/$B$10</f>
+        <f t="shared" si="20"/>
         <v>5.5345136554383085</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="16"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="8">
         <v>0.75</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>10</v>
       </c>
       <c r="D103" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="E103" s="8" t="s">
@@ -7074,24 +7074,24 @@
         <v>6.7258633946986696E-2</v>
       </c>
       <c r="Q103" s="8">
-        <f>G103+H103+RADIANS(I103)+J103+K103+L103+M103+RADIANS(N103)+O103+P103</f>
+        <f t="shared" si="17"/>
         <v>0.56742125679620137</v>
       </c>
       <c r="R103" s="8">
-        <f>RADIANS(I103/$C$10)+J103/$B$10+K103/$B$10+RADIANS(N103/$C$10)+O103/$B$10+P103/$B$10</f>
+        <f t="shared" si="18"/>
         <v>7.751835999914416</v>
       </c>
       <c r="S103" s="8">
-        <f>L103+M103+RADIANS(N103)+O103+P103</f>
+        <f t="shared" si="19"/>
         <v>0.4795293991486963</v>
       </c>
       <c r="T103" s="8">
-        <f>RADIANS(N103/$C$10)+O103/$B$10+P103/$B$10</f>
+        <f t="shared" si="20"/>
         <v>6.4198397069686557</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="16"/>
+      <c r="A104" s="18"/>
       <c r="B104" s="8">
         <v>0.75</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>11</v>
       </c>
       <c r="D104" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.44</v>
       </c>
       <c r="E104" s="8" t="s">
@@ -7137,24 +7137,24 @@
         <v>7.5274923698164894E-2</v>
       </c>
       <c r="Q104" s="8">
-        <f>G104+H104+RADIANS(I104)+J104+K104+L104+M104+RADIANS(N104)+O104+P104</f>
+        <f t="shared" si="17"/>
         <v>0.60568601800817523</v>
       </c>
       <c r="R104" s="8">
-        <f>RADIANS(I104/$C$10)+J104/$B$10+K104/$B$10+RADIANS(N104/$C$10)+O104/$B$10+P104/$B$10</f>
+        <f t="shared" si="18"/>
         <v>8.6563710710539894</v>
       </c>
       <c r="S104" s="8">
-        <f>L104+M104+RADIANS(N104)+O104+P104</f>
+        <f t="shared" si="19"/>
         <v>0.51367886094052895</v>
       </c>
       <c r="T104" s="8">
-        <f>RADIANS(N104/$C$10)+O104/$B$10+P104/$B$10</f>
+        <f t="shared" si="20"/>
         <v>7.248969180613555</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="16"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="8">
         <v>0.75</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="8">
-        <f t="shared" ref="D105:D195" si="9">C105*$B$8</f>
+        <f t="shared" ref="D105:D195" si="21">C105*$B$8</f>
         <v>0.48</v>
       </c>
       <c r="E105" s="8" t="s">
@@ -7200,24 +7200,24 @@
         <v>8.2453106297700293E-2</v>
       </c>
       <c r="Q105" s="8">
-        <f>G105+H105+RADIANS(I105)+J105+K105+L105+M105+RADIANS(N105)+O105+P105</f>
+        <f t="shared" si="17"/>
         <v>0.63708167749275113</v>
       </c>
       <c r="R105" s="8">
-        <f>RADIANS(I105/$C$10)+J105/$B$10+K105/$B$10+RADIANS(N105/$C$10)+O105/$B$10+P105/$B$10</f>
+        <f t="shared" si="18"/>
         <v>9.4812589405880843</v>
       </c>
       <c r="S105" s="8">
-        <f>L105+M105+RADIANS(N105)+O105+P105</f>
+        <f t="shared" si="19"/>
         <v>0.54027526131680437</v>
       </c>
       <c r="T105" s="8">
-        <f>RADIANS(N105/$C$10)+O105/$B$10+P105/$B$10</f>
+        <f t="shared" si="20"/>
         <v>7.9897741171817707</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="16"/>
+      <c r="A106" s="18"/>
       <c r="B106" s="8">
         <v>0.75</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.52</v>
       </c>
       <c r="E106" s="8" t="s">
@@ -7263,24 +7263,24 @@
         <v>8.9113085228838804E-2</v>
       </c>
       <c r="Q106" s="8">
-        <f>G106+H106+RADIANS(I106)+J106+K106+L106+M106+RADIANS(N106)+O106+P106</f>
+        <f t="shared" si="17"/>
         <v>0.67178913080127267</v>
       </c>
       <c r="R106" s="8">
-        <f>RADIANS(I106/$C$10)+J106/$B$10+K106/$B$10+RADIANS(N106/$C$10)+O106/$B$10+P106/$B$10</f>
+        <f t="shared" si="18"/>
         <v>10.25557472116687</v>
       </c>
       <c r="S106" s="8">
-        <f>L106+M106+RADIANS(N106)+O106+P106</f>
+        <f t="shared" si="19"/>
         <v>0.57088158417649593</v>
       </c>
       <c r="T106" s="8">
-        <f>RADIANS(N106/$C$10)+O106/$B$10+P106/$B$10</f>
+        <f t="shared" si="20"/>
         <v>8.6787233057010322</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="16"/>
+      <c r="A107" s="18"/>
       <c r="B107" s="8">
         <v>0.75</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>14</v>
       </c>
       <c r="D107" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E107" s="8" t="s">
@@ -7326,24 +7326,24 @@
         <v>9.71054043664277E-2</v>
       </c>
       <c r="Q107" s="8">
-        <f>G107+H107+RADIANS(I107)+J107+K107+L107+M107+RADIANS(N107)+O107+P107</f>
+        <f t="shared" si="17"/>
         <v>0.70952698413656967</v>
       </c>
       <c r="R107" s="8">
-        <f>RADIANS(I107/$C$10)+J107/$B$10+K107/$B$10+RADIANS(N107/$C$10)+O107/$B$10+P107/$B$10</f>
+        <f t="shared" si="18"/>
         <v>11.087186047842989</v>
       </c>
       <c r="S107" s="8">
-        <f>L107+M107+RADIANS(N107)+O107+P107</f>
+        <f t="shared" si="19"/>
         <v>0.60339149155749483</v>
       </c>
       <c r="T107" s="8">
-        <f>RADIANS(N107/$C$10)+O107/$B$10+P107/$B$10</f>
+        <f t="shared" si="20"/>
         <v>9.409516209597788</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="16"/>
+      <c r="A108" s="18"/>
       <c r="B108" s="8">
         <v>0.75</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
       <c r="E108" s="8" t="s">
@@ -7389,24 +7389,24 @@
         <v>0.10474320492028601</v>
       </c>
       <c r="Q108" s="8">
-        <f>G108+H108+RADIANS(I108)+J108+K108+L108+M108+RADIANS(N108)+O108+P108</f>
+        <f t="shared" si="17"/>
         <v>0.74044809918736965</v>
       </c>
       <c r="R108" s="8">
-        <f>RADIANS(I108/$C$10)+J108/$B$10+K108/$B$10+RADIANS(N108/$C$10)+O108/$B$10+P108/$B$10</f>
+        <f t="shared" si="18"/>
         <v>11.853365078559758</v>
       </c>
       <c r="S108" s="8">
-        <f>L108+M108+RADIANS(N108)+O108+P108</f>
+        <f t="shared" si="19"/>
         <v>0.62968028049434721</v>
       </c>
       <c r="T108" s="8">
-        <f>RADIANS(N108/$C$10)+O108/$B$10+P108/$B$10</f>
+        <f t="shared" si="20"/>
         <v>10.083531750524159</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="16"/>
+      <c r="A109" s="18"/>
       <c r="B109" s="8">
         <v>0.75</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>16</v>
       </c>
       <c r="D109" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.64</v>
       </c>
       <c r="E109" s="8" t="s">
@@ -7452,24 +7452,24 @@
         <v>0.110089509005053</v>
       </c>
       <c r="Q109" s="8">
-        <f>G109+H109+RADIANS(I109)+J109+K109+L109+M109+RADIANS(N109)+O109+P109</f>
+        <f t="shared" si="17"/>
         <v>0.76619598361476371</v>
       </c>
       <c r="R109" s="8">
-        <f>RADIANS(I109/$C$10)+J109/$B$10+K109/$B$10+RADIANS(N109/$C$10)+O109/$B$10+P109/$B$10</f>
+        <f t="shared" si="18"/>
         <v>12.47066804673667</v>
       </c>
       <c r="S109" s="8">
-        <f>L109+M109+RADIANS(N109)+O109+P109</f>
+        <f t="shared" si="19"/>
         <v>0.65122381507313787</v>
       </c>
       <c r="T109" s="8">
-        <f>RADIANS(N109/$C$10)+O109/$B$10+P109/$B$10</f>
+        <f t="shared" si="20"/>
         <v>10.6121661311502</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A110" s="16"/>
+      <c r="A110" s="18"/>
       <c r="B110" s="8">
         <v>0.75</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>17</v>
       </c>
       <c r="D110" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.68</v>
       </c>
       <c r="E110" s="8" t="s">
@@ -7515,24 +7515,24 @@
         <v>0.114675576070166</v>
       </c>
       <c r="Q110" s="8">
-        <f>G110+H110+RADIANS(I110)+J110+K110+L110+M110+RADIANS(N110)+O110+P110</f>
+        <f t="shared" si="17"/>
         <v>0.78631483690308435</v>
       </c>
       <c r="R110" s="8">
-        <f>RADIANS(I110/$C$10)+J110/$B$10+K110/$B$10+RADIANS(N110/$C$10)+O110/$B$10+P110/$B$10</f>
+        <f t="shared" si="18"/>
         <v>12.99213918076007</v>
       </c>
       <c r="S110" s="8">
-        <f>L110+M110+RADIANS(N110)+O110+P110</f>
+        <f t="shared" si="19"/>
         <v>0.66807728818534595</v>
       </c>
       <c r="T110" s="8">
-        <f>RADIANS(N110/$C$10)+O110/$B$10+P110/$B$10</f>
+        <f t="shared" si="20"/>
         <v>11.054054384250918</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A111" s="16"/>
+      <c r="A111" s="18"/>
       <c r="B111" s="8">
         <v>0.75</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>18</v>
       </c>
       <c r="D111" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
       <c r="E111" s="8" t="s">
@@ -7578,24 +7578,24 @@
         <v>0.118851511852024</v>
       </c>
       <c r="Q111" s="8">
-        <f>G111+H111+RADIANS(I111)+J111+K111+L111+M111+RADIANS(N111)+O111+P111</f>
+        <f t="shared" si="17"/>
         <v>0.8030238855354267</v>
       </c>
       <c r="R111" s="8">
-        <f>RADIANS(I111/$C$10)+J111/$B$10+K111/$B$10+RADIANS(N111/$C$10)+O111/$B$10+P111/$B$10</f>
+        <f t="shared" si="18"/>
         <v>13.466874267776429</v>
       </c>
       <c r="S111" s="8">
-        <f>L111+M111+RADIANS(N111)+O111+P111</f>
+        <f t="shared" si="19"/>
         <v>0.68113814739891598</v>
       </c>
       <c r="T111" s="8">
-        <f>RADIANS(N111/$C$10)+O111/$B$10+P111/$B$10</f>
+        <f t="shared" si="20"/>
         <v>11.446593166220119</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="16"/>
+      <c r="A112" s="18"/>
       <c r="B112" s="8">
         <v>0.75</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>19</v>
       </c>
       <c r="D112" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.76</v>
       </c>
       <c r="E112" s="8" t="s">
@@ -7641,24 +7641,24 @@
         <v>0.122499594086417</v>
       </c>
       <c r="Q112" s="8">
-        <f>G112+H112+RADIANS(I112)+J112+K112+L112+M112+RADIANS(N112)+O112+P112</f>
+        <f t="shared" si="17"/>
         <v>0.82099585916159679</v>
       </c>
       <c r="R112" s="8">
-        <f>RADIANS(I112/$C$10)+J112/$B$10+K112/$B$10+RADIANS(N112/$C$10)+O112/$B$10+P112/$B$10</f>
+        <f t="shared" si="18"/>
         <v>13.902001046864504</v>
       </c>
       <c r="S112" s="8">
-        <f>L112+M112+RADIANS(N112)+O112+P112</f>
+        <f t="shared" si="19"/>
         <v>0.69503992135055415</v>
       </c>
       <c r="T112" s="8">
-        <f>RADIANS(N112/$C$10)+O112/$B$10+P112/$B$10</f>
+        <f t="shared" si="20"/>
         <v>11.79410986792084</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="16"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="8">
         <v>0.75</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>20</v>
       </c>
       <c r="D113" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
       <c r="E113" s="8" t="s">
@@ -7704,24 +7704,24 @@
         <v>0.125848082425709</v>
       </c>
       <c r="Q113" s="8">
-        <f>G113+H113+RADIANS(I113)+J113+K113+L113+M113+RADIANS(N113)+O113+P113</f>
+        <f t="shared" si="17"/>
         <v>0.83894778097927969</v>
       </c>
       <c r="R113" s="8">
-        <f>RADIANS(I113/$C$10)+J113/$B$10+K113/$B$10+RADIANS(N113/$C$10)+O113/$B$10+P113/$B$10</f>
+        <f t="shared" si="18"/>
         <v>14.313736063530996</v>
       </c>
       <c r="S113" s="8">
-        <f>L113+M113+RADIANS(N113)+O113+P113</f>
+        <f t="shared" si="19"/>
         <v>0.7082619136401308</v>
       </c>
       <c r="T113" s="8">
-        <f>RADIANS(N113/$C$10)+O113/$B$10+P113/$B$10</f>
+        <f t="shared" si="20"/>
         <v>12.112315541071119</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="16"/>
+      <c r="A114" s="18"/>
       <c r="B114" s="8">
         <v>0.75</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>21</v>
       </c>
       <c r="D114" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.84</v>
       </c>
       <c r="E114" s="8" t="s">
@@ -7767,24 +7767,24 @@
         <v>0.12896525836105599</v>
       </c>
       <c r="Q114" s="8">
-        <f>G114+H114+RADIANS(I114)+J114+K114+L114+M114+RADIANS(N114)+O114+P114</f>
+        <f t="shared" si="17"/>
         <v>0.85623731389463731</v>
       </c>
       <c r="R114" s="8">
-        <f>RADIANS(I114/$C$10)+J114/$B$10+K114/$B$10+RADIANS(N114/$C$10)+O114/$B$10+P114/$B$10</f>
+        <f t="shared" si="18"/>
         <v>14.698163588469765</v>
       </c>
       <c r="S114" s="8">
-        <f>L114+M114+RADIANS(N114)+O114+P114</f>
+        <f t="shared" si="19"/>
         <v>0.72109142244798807</v>
       </c>
       <c r="T114" s="8">
-        <f>RADIANS(N114/$C$10)+O114/$B$10+P114/$B$10</f>
+        <f t="shared" si="20"/>
         <v>12.404977985962599</v>
       </c>
     </row>
     <row r="115" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="8">
         <v>0.75</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>22</v>
       </c>
       <c r="D115" s="8">
-        <f>C115*$B$8</f>
+        <f t="shared" ref="D115:D138" si="22">C115*$B$8</f>
         <v>0.88</v>
       </c>
       <c r="E115" s="8" t="s">
@@ -7830,24 +7830,24 @@
         <v>0.13185798422749501</v>
       </c>
       <c r="Q115" s="8">
-        <f>G115+H115+RADIANS(I115)+J115+K115+L115+M115+RADIANS(N115)+O115+P115</f>
+        <f t="shared" si="17"/>
         <v>0.87849902356113696</v>
       </c>
       <c r="R115" s="8">
-        <f>RADIANS(I115/$C$10)+J115/$B$10+K115/$B$10+RADIANS(N115/$C$10)+O115/$B$10+P115/$B$10</f>
+        <f t="shared" si="18"/>
         <v>15.078552937446737</v>
       </c>
       <c r="S115" s="8">
-        <f>L115+M115+RADIANS(N115)+O115+P115</f>
+        <f t="shared" si="19"/>
         <v>0.737043614487501</v>
       </c>
       <c r="T115" s="8">
-        <f>RADIANS(N115/$C$10)+O115/$B$10+P115/$B$10</f>
+        <f t="shared" si="20"/>
         <v>12.674990087955919</v>
       </c>
     </row>
     <row r="116" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="16"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="7">
         <v>1</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="7">
-        <f>C116*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.12</v>
       </c>
       <c r="E116" s="7" t="s">
@@ -7893,24 +7893,24 @@
         <v>0.18148132005812101</v>
       </c>
       <c r="Q116" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2.3645696089952928</v>
       </c>
       <c r="R116" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>27.680641106916188</v>
       </c>
       <c r="S116" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.9101517263424306</v>
       </c>
       <c r="T116" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>21.501181541599998</v>
       </c>
     </row>
     <row r="117" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="16"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="8">
         <v>1</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="8">
-        <f>C117*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.16</v>
       </c>
       <c r="E117" s="8" t="s">
@@ -7956,24 +7956,24 @@
         <v>0.15916028128689999</v>
       </c>
       <c r="Q117" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2.1277292830128953</v>
       </c>
       <c r="R117" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>23.78322683591589</v>
       </c>
       <c r="S117" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.7227235447190754</v>
       </c>
       <c r="T117" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>18.460770888012238</v>
       </c>
     </row>
     <row r="118" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="16"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="8">
         <v>1</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="8">
-        <f>C118*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.2</v>
       </c>
       <c r="E118" s="8" t="s">
@@ -8019,24 +8019,24 @@
         <v>0.14137066621736</v>
       </c>
       <c r="Q118" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.8835094016755052</v>
       </c>
       <c r="R118" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>20.58215779618105</v>
       </c>
       <c r="S118" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.5313164408216136</v>
       </c>
       <c r="T118" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>16.113382879651361</v>
       </c>
     </row>
     <row r="119" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="16"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="8">
         <v>1</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="8">
-        <f>C119*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.24</v>
       </c>
       <c r="E119" s="8" t="s">
@@ -8082,24 +8082,24 @@
         <v>0.122612855912371</v>
       </c>
       <c r="Q119" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.6253422412345211</v>
       </c>
       <c r="R119" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>17.468058939905085</v>
       </c>
       <c r="S119" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.3307269640174473</v>
       </c>
       <c r="T119" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>13.881328650028678</v>
       </c>
     </row>
     <row r="120" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="16"/>
+      <c r="A120" s="18"/>
       <c r="B120" s="8">
         <v>1</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>7</v>
       </c>
       <c r="D120" s="8">
-        <f>C120*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E120" s="8" t="s">
@@ -8145,24 +8145,24 @@
         <v>0.107886352399873</v>
       </c>
       <c r="Q120" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.3998473141345922</v>
       </c>
       <c r="R120" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>15.053335867917575</v>
       </c>
       <c r="S120" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.147774955334613</v>
       </c>
       <c r="T120" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>12.040336000082117</v>
       </c>
     </row>
     <row r="121" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="16"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="8">
         <v>1</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="8">
-        <f>C121*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.32</v>
       </c>
       <c r="E121" s="8" t="s">
@@ -8208,24 +8208,24 @@
         <v>9.0536817054366794E-2</v>
       </c>
       <c r="Q121" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.1791096818263793</v>
       </c>
       <c r="R121" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>12.950049917718934</v>
       </c>
       <c r="S121" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.9622550928429553</v>
       </c>
       <c r="T121" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>10.31579634208223</v>
       </c>
     </row>
     <row r="122" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="16"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="8">
         <v>1</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="8">
-        <f>C122*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.36</v>
       </c>
       <c r="E122" s="8" t="s">
@@ -8271,24 +8271,24 @@
         <v>7.5494880416303006E-2</v>
       </c>
       <c r="Q122" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.96713400080239975</v>
       </c>
       <c r="R122" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>10.954073351275197</v>
       </c>
       <c r="S122" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.78001286794902092</v>
       </c>
       <c r="T122" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8.5892675341964395</v>
       </c>
     </row>
     <row r="123" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="16"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="8">
         <v>1</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>10</v>
       </c>
       <c r="D123" s="8">
-        <f>C123*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.4</v>
       </c>
       <c r="E123" s="8" t="s">
@@ -8334,87 +8334,87 @@
         <v>7.1266705745506601E-2</v>
       </c>
       <c r="Q123" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.8828157741297048</v>
       </c>
       <c r="R123" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>10.132154701257882</v>
       </c>
       <c r="S123" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.70700191559147874</v>
       </c>
       <c r="T123" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.8488944886039826</v>
       </c>
     </row>
     <row r="124" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16"/>
-      <c r="B124" s="19">
+      <c r="A124" s="18"/>
+      <c r="B124" s="16">
         <v>1</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C124" s="16">
         <v>11</v>
       </c>
-      <c r="D124" s="19">
-        <f>C124*$B$8</f>
+      <c r="D124" s="16">
+        <f t="shared" si="22"/>
         <v>0.44</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19">
+      <c r="F124" s="16"/>
+      <c r="G124" s="16">
         <v>2.1757858820534302E-2</v>
       </c>
-      <c r="H124" s="19">
+      <c r="H124" s="16">
         <v>2.5707366807674999E-2</v>
       </c>
-      <c r="I124" s="19">
+      <c r="I124" s="16">
         <v>4.5169723383804703</v>
       </c>
-      <c r="J124" s="19">
+      <c r="J124" s="16">
         <v>3.5821758156612198E-2</v>
       </c>
-      <c r="K124" s="19">
+      <c r="K124" s="16">
         <v>2.36650363398389E-2</v>
       </c>
-      <c r="L124" s="19">
+      <c r="L124" s="16">
         <v>9.5404505729999894E-2</v>
       </c>
-      <c r="M124" s="19">
+      <c r="M124" s="16">
         <v>0.12184603452700001</v>
       </c>
-      <c r="N124" s="19">
+      <c r="N124" s="16">
         <v>20.758959769052101</v>
       </c>
-      <c r="O124" s="19">
+      <c r="O124" s="16">
         <v>0.131208132528535</v>
       </c>
-      <c r="P124" s="19">
+      <c r="P124" s="16">
         <v>8.2912226268178596E-2</v>
       </c>
-      <c r="Q124" s="19">
-        <f t="shared" si="5"/>
+      <c r="Q124" s="16">
+        <f t="shared" si="13"/>
         <v>0.97947115596362144</v>
       </c>
-      <c r="R124" s="19">
-        <f t="shared" si="6"/>
+      <c r="R124" s="16">
+        <f t="shared" si="14"/>
         <v>11.120745426440685</v>
       </c>
-      <c r="S124" s="19">
-        <f t="shared" si="7"/>
+      <c r="S124" s="16">
+        <f t="shared" si="15"/>
         <v>0.79368309631271439</v>
       </c>
-      <c r="T124" s="19">
-        <f t="shared" si="8"/>
+      <c r="T124" s="16">
+        <f t="shared" si="16"/>
         <v>8.7097392307721435</v>
       </c>
     </row>
     <row r="125" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="16"/>
+      <c r="A125" s="18"/>
       <c r="B125" s="8">
         <v>1</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="8">
-        <f>C125*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.48</v>
       </c>
       <c r="E125" s="8" t="s">
@@ -8460,24 +8460,24 @@
         <v>9.5516517060952696E-2</v>
       </c>
       <c r="Q125" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.0580514065077522</v>
       </c>
       <c r="R125" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>12.194115278028365</v>
       </c>
       <c r="S125" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.86433222261430742</v>
       </c>
       <c r="T125" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.667853115430308</v>
       </c>
     </row>
     <row r="126" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="16"/>
+      <c r="A126" s="18"/>
       <c r="B126" s="8">
         <v>1</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>13</v>
       </c>
       <c r="D126" s="8">
-        <f>C126*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.52</v>
       </c>
       <c r="E126" s="8" t="s">
@@ -8523,24 +8523,24 @@
         <v>0.1051370258327</v>
       </c>
       <c r="Q126" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.0732006777018541</v>
       </c>
       <c r="R126" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>12.883832425692233</v>
       </c>
       <c r="S126" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.87380670871795174</v>
       </c>
       <c r="T126" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>10.257565533535679</v>
       </c>
     </row>
     <row r="127" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="16"/>
+      <c r="A127" s="18"/>
       <c r="B127" s="8">
         <v>1</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>14</v>
       </c>
       <c r="D127" s="8">
-        <f>C127*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E127" s="8" t="s">
@@ -8586,24 +8586,24 @@
         <v>0.11239899208939901</v>
       </c>
       <c r="Q127" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.1076904582804563</v>
       </c>
       <c r="R127" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>13.746088604401024</v>
       </c>
       <c r="S127" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.90223024528818374</v>
       </c>
       <c r="T127" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>11.01191571989132</v>
       </c>
     </row>
     <row r="128" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="16"/>
+      <c r="A128" s="18"/>
       <c r="B128" s="8">
         <v>1</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>15</v>
       </c>
       <c r="D128" s="8">
-        <f>C128*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.6</v>
       </c>
       <c r="E128" s="8" t="s">
@@ -8649,24 +8649,24 @@
         <v>0.119024418815994</v>
       </c>
       <c r="Q128" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.1494414971810796</v>
       </c>
       <c r="R128" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>14.564814078184884</v>
       </c>
       <c r="S128" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.93648079424183173</v>
       </c>
       <c r="T128" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>11.70978050696448</v>
       </c>
     </row>
     <row r="129" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="16"/>
+      <c r="A129" s="18"/>
       <c r="B129" s="8">
         <v>1</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>16</v>
       </c>
       <c r="D129" s="8">
-        <f>C129*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.64</v>
       </c>
       <c r="E129" s="8" t="s">
@@ -8712,24 +8712,24 @@
         <v>0.12522234547688299</v>
       </c>
       <c r="Q129" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.1742983699788119</v>
       </c>
       <c r="R129" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>15.303860784989009</v>
       </c>
       <c r="S129" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.95467215475247147</v>
       </c>
       <c r="T129" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>12.332926987084479</v>
       </c>
     </row>
     <row r="130" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="16"/>
+      <c r="A130" s="18"/>
       <c r="B130" s="8">
         <v>1</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>17</v>
       </c>
       <c r="D130" s="8">
-        <f>C130*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.68</v>
       </c>
       <c r="E130" s="8" t="s">
@@ -8775,24 +8775,24 @@
         <v>0.13121916329705899</v>
       </c>
       <c r="Q130" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.2023688223644788</v>
       </c>
       <c r="R130" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>16.006861563688059</v>
       </c>
       <c r="S130" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.97696775622889853</v>
       </c>
       <c r="T130" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>12.925456271423919</v>
       </c>
     </row>
     <row r="131" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="16"/>
+      <c r="A131" s="18"/>
       <c r="B131" s="8">
         <v>1</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>18</v>
       </c>
       <c r="D131" s="8">
-        <f>C131*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.72</v>
       </c>
       <c r="E131" s="8" t="s">
@@ -8838,24 +8838,24 @@
         <v>0.137328827517853</v>
       </c>
       <c r="Q131" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.2262164455971352</v>
       </c>
       <c r="R131" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>16.677219408151913</v>
       </c>
       <c r="S131" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.9959411887915095</v>
       </c>
       <c r="T131" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>13.491748206647598</v>
       </c>
     </row>
     <row r="132" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="16"/>
+      <c r="A132" s="18"/>
       <c r="B132" s="8">
         <v>1</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>19</v>
       </c>
       <c r="D132" s="8">
-        <f>C132*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.76</v>
       </c>
       <c r="E132" s="8" t="s">
@@ -8901,24 +8901,24 @@
         <v>0.14295431519020499</v>
       </c>
       <c r="Q132" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.2500115493978941</v>
       </c>
       <c r="R132" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>17.318630271678362</v>
       </c>
       <c r="S132" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.0128491369733064</v>
       </c>
       <c r="T132" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>14.01629473373108</v>
       </c>
     </row>
     <row r="133" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="16"/>
+      <c r="A133" s="18"/>
       <c r="B133" s="8">
         <v>1</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>20</v>
       </c>
       <c r="D133" s="8">
-        <f>C133*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.8</v>
       </c>
       <c r="E133" s="8" t="s">
@@ -8964,24 +8964,24 @@
         <v>0.14693720919335301</v>
       </c>
       <c r="Q133" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.2824998164010486</v>
       </c>
       <c r="R133" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>17.914695298870676</v>
       </c>
       <c r="S133" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.0363634373234039</v>
       </c>
       <c r="T133" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>14.475383596778919</v>
       </c>
     </row>
     <row r="134" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="16"/>
+      <c r="A134" s="18"/>
       <c r="B134" s="8">
         <v>1</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>21</v>
       </c>
       <c r="D134" s="8">
-        <f>C134*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.84</v>
       </c>
       <c r="E134" s="8" t="s">
@@ -9027,24 +9027,24 @@
         <v>0.150659286064729</v>
       </c>
       <c r="Q134" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.3077958380359784</v>
       </c>
       <c r="R134" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>18.470267540130731</v>
       </c>
       <c r="S134" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.0531567381953821</v>
       </c>
       <c r="T134" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>14.889987158002118</v>
       </c>
     </row>
     <row r="135" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="16"/>
+      <c r="A135" s="18"/>
       <c r="B135" s="8">
         <v>1</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>22</v>
       </c>
       <c r="D135" s="8">
-        <f>C135*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.88</v>
       </c>
       <c r="E135" s="8" t="s">
@@ -9090,24 +9090,24 @@
         <v>0.154027216834142</v>
       </c>
       <c r="Q135" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.3386141032878447</v>
       </c>
       <c r="R135" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>18.990616120441633</v>
       </c>
       <c r="S135" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.0749821011255656</v>
       </c>
       <c r="T135" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>15.272436602226239</v>
       </c>
     </row>
     <row r="136" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="16"/>
+      <c r="A136" s="18"/>
       <c r="B136" s="8">
         <v>1</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>23</v>
       </c>
       <c r="D136" s="8">
-        <f>C136*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.92</v>
       </c>
       <c r="E136" s="8" t="s">
@@ -9153,24 +9153,24 @@
         <v>0.15760737612456999</v>
       </c>
       <c r="Q136" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.3754452734637752</v>
       </c>
       <c r="R136" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>19.531063777312689</v>
       </c>
       <c r="S136" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.1008574180872275</v>
       </c>
       <c r="T136" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>15.655371664682677</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="16"/>
+      <c r="A137" s="18"/>
       <c r="B137" s="5">
         <v>1</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>24</v>
       </c>
       <c r="D137" s="5">
-        <f>C137*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.96</v>
       </c>
       <c r="E137" s="8" t="s">
@@ -9216,24 +9216,24 @@
         <v>0.16082001525748199</v>
       </c>
       <c r="Q137" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.4146275667036263</v>
       </c>
       <c r="R137" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>20.030253134714748</v>
       </c>
       <c r="S137" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.1300346475944725</v>
       </c>
       <c r="T137" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>16.000123232869679</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B138" s="7">
@@ -9243,7 +9243,7 @@
         <v>3</v>
       </c>
       <c r="D138" s="7">
-        <f>C138*$B$8</f>
+        <f t="shared" si="22"/>
         <v>0.12</v>
       </c>
       <c r="E138" s="7" t="s">
@@ -9281,24 +9281,24 @@
         <v>1.62467728550671E-2</v>
       </c>
       <c r="Q138" s="7">
-        <f>G138+H138+RADIANS(I138)+J138+K138+L138+M138+RADIANS(N138)+O138+P138</f>
+        <f t="shared" ref="Q138:Q157" si="23">G138+H138+RADIANS(I138)+J138+K138+L138+M138+RADIANS(N138)+O138+P138</f>
         <v>0.11749193885009654</v>
       </c>
       <c r="R138" s="7">
-        <f>RADIANS(I138/$C$10)+J138/$B$10+K138/$B$10+RADIANS(N138/$C$10)+O138/$B$10+P138/$B$10</f>
+        <f t="shared" ref="R138:R157" si="24">RADIANS(I138/$C$10)+J138/$B$10+K138/$B$10+RADIANS(N138/$C$10)+O138/$B$10+P138/$B$10</f>
         <v>2.1814090763755232</v>
       </c>
       <c r="S138" s="7">
-        <f>L138+M138+RADIANS(N138)+O138+P138</f>
+        <f t="shared" ref="S138:S157" si="25">L138+M138+RADIANS(N138)+O138+P138</f>
         <v>8.6564877785047595E-2</v>
       </c>
       <c r="T138" s="7">
-        <f>RADIANS(N138/$C$10)+O138/$B$10+P138/$B$10</f>
+        <f t="shared" ref="T138:T157" si="26">RADIANS(N138/$C$10)+O138/$B$10+P138/$B$10</f>
         <v>1.532147583957884</v>
       </c>
     </row>
     <row r="139" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="16"/>
+      <c r="A139" s="18"/>
       <c r="B139" s="6">
         <v>0.5</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="6">
-        <f t="shared" ref="D139:D157" si="10">C139*$B$8</f>
+        <f t="shared" ref="D139:D157" si="27">C139*$B$8</f>
         <v>0.16</v>
       </c>
       <c r="E139" s="8" t="s">
@@ -9344,87 +9344,87 @@
         <v>1.5835551311174201E-2</v>
       </c>
       <c r="Q139" s="8">
-        <f>G139+H139+RADIANS(I139)+J139+K139+L139+M139+RADIANS(N139)+O139+P139</f>
+        <f t="shared" si="23"/>
         <v>0.10546817233322828</v>
       </c>
       <c r="R139" s="8">
-        <f>RADIANS(I139/$C$10)+J139/$B$10+K139/$B$10+RADIANS(N139/$C$10)+O139/$B$10+P139/$B$10</f>
+        <f t="shared" si="24"/>
         <v>1.9183130722170962</v>
       </c>
       <c r="S139" s="9">
-        <f>L139+M139+RADIANS(N139)+O139+P139</f>
+        <f t="shared" si="25"/>
         <v>7.8741358723810301E-2</v>
       </c>
       <c r="T139" s="9">
-        <f>RADIANS(N139/$C$10)+O139/$B$10+P139/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.371263627864024</v>
       </c>
     </row>
     <row r="140" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="16"/>
-      <c r="B140" s="19">
+      <c r="A140" s="18"/>
+      <c r="B140" s="16">
         <v>0.5</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C140" s="16">
         <v>5</v>
       </c>
-      <c r="D140" s="19">
-        <f t="shared" si="10"/>
+      <c r="D140" s="16">
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
-      <c r="E140" s="19" t="s">
+      <c r="E140" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19">
+      <c r="F140" s="16"/>
+      <c r="G140" s="16">
         <v>4.0811833493407303E-3</v>
       </c>
-      <c r="H140" s="19">
+      <c r="H140" s="16">
         <v>3.9848773727263901E-3</v>
       </c>
-      <c r="I140" s="19">
+      <c r="I140" s="16">
         <v>0.217870093641406</v>
       </c>
-      <c r="J140" s="19">
+      <c r="J140" s="16">
         <v>6.3605692287970299E-3</v>
       </c>
-      <c r="K140" s="19">
+      <c r="K140" s="16">
         <v>5.3715064943956302E-3</v>
       </c>
       <c r="L140" s="9">
         <v>1.3041297860000099E-2</v>
       </c>
-      <c r="M140" s="19">
+      <c r="M140" s="16">
         <v>1.98959306135E-2</v>
       </c>
-      <c r="N140" s="19">
+      <c r="N140" s="16">
         <v>0.76463496297622102</v>
       </c>
-      <c r="O140" s="19">
+      <c r="O140" s="16">
         <v>1.99733171644659E-2</v>
       </c>
       <c r="P140" s="9">
         <v>1.5042735738565301E-2</v>
       </c>
       <c r="Q140" s="9">
-        <f>G140+H140+RADIANS(I140)+J140+K140+L140+M140+RADIANS(N140)+O140+P140</f>
+        <f t="shared" si="23"/>
         <v>0.10489936597726199</v>
       </c>
       <c r="R140" s="9">
-        <f>RADIANS(I140/$C$10)+J140/$B$10+K140/$B$10+RADIANS(N140/$C$10)+O140/$B$10+P140/$B$10</f>
+        <f t="shared" si="24"/>
         <v>1.8767843243111426</v>
       </c>
-      <c r="S140" s="19">
-        <f>L140+M140+RADIANS(N140)+O140+P140</f>
+      <c r="S140" s="16">
+        <f t="shared" si="25"/>
         <v>8.1298679056331286E-2</v>
       </c>
-      <c r="T140" s="19">
-        <f>RADIANS(N140/$C$10)+O140/$B$10+P140/$B$10</f>
+      <c r="T140" s="16">
+        <f t="shared" si="26"/>
         <v>1.4059802751931678</v>
       </c>
     </row>
     <row r="141" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="16"/>
+      <c r="A141" s="18"/>
       <c r="B141" s="6">
         <v>0.5</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>6</v>
       </c>
       <c r="D141" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.24</v>
       </c>
       <c r="E141" s="8" t="s">
@@ -9470,24 +9470,24 @@
         <v>1.5294056245976601E-2</v>
       </c>
       <c r="Q141" s="8">
-        <f>G141+H141+RADIANS(I141)+J141+K141+L141+M141+RADIANS(N141)+O141+P141</f>
+        <f t="shared" si="23"/>
         <v>0.1057022191834565</v>
       </c>
       <c r="R141" s="8">
-        <f>RADIANS(I141/$C$10)+J141/$B$10+K141/$B$10+RADIANS(N141/$C$10)+O141/$B$10+P141/$B$10</f>
+        <f t="shared" si="24"/>
         <v>1.8864509164745991</v>
       </c>
       <c r="S141" s="8">
-        <f>L141+M141+RADIANS(N141)+O141+P141</f>
+        <f t="shared" si="25"/>
         <v>8.3544423778401711E-2</v>
       </c>
       <c r="T141" s="8">
-        <f>RADIANS(N141/$C$10)+O141/$B$10+P141/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.451345048979668</v>
       </c>
     </row>
     <row r="142" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="16"/>
+      <c r="A142" s="18"/>
       <c r="B142" s="6">
         <v>0.5</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>7</v>
       </c>
       <c r="D142" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E142" s="8" t="s">
@@ -9533,24 +9533,24 @@
         <v>1.53873875640593E-2</v>
       </c>
       <c r="Q142" s="8">
-        <f>G142+H142+RADIANS(I142)+J142+K142+L142+M142+RADIANS(N142)+O142+P142</f>
+        <f t="shared" si="23"/>
         <v>0.10707078316465558</v>
       </c>
       <c r="R142" s="8">
-        <f>RADIANS(I142/$C$10)+J142/$B$10+K142/$B$10+RADIANS(N142/$C$10)+O142/$B$10+P142/$B$10</f>
+        <f t="shared" si="24"/>
         <v>1.9107163385556953</v>
       </c>
       <c r="S142" s="8">
-        <f>L142+M142+RADIANS(N142)+O142+P142</f>
+        <f t="shared" si="25"/>
         <v>8.4293708098863107E-2</v>
       </c>
       <c r="T142" s="8">
-        <f>RADIANS(N142/$C$10)+O142/$B$10+P142/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.46070737604916</v>
       </c>
     </row>
     <row r="143" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="16"/>
+      <c r="A143" s="18"/>
       <c r="B143" s="6">
         <v>0.5</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>8</v>
       </c>
       <c r="D143" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.32</v>
       </c>
       <c r="E143" s="8" t="s">
@@ -9596,24 +9596,24 @@
         <v>1.5485259883001E-2</v>
       </c>
       <c r="Q143" s="8">
-        <f>G143+H143+RADIANS(I143)+J143+K143+L143+M143+RADIANS(N143)+O143+P143</f>
+        <f t="shared" si="23"/>
         <v>0.10935241959406175</v>
       </c>
       <c r="R143" s="8">
-        <f>RADIANS(I143/$C$10)+J143/$B$10+K143/$B$10+RADIANS(N143/$C$10)+O143/$B$10+P143/$B$10</f>
+        <f t="shared" si="24"/>
         <v>1.9563029688629268</v>
       </c>
       <c r="S143" s="8">
-        <f>L143+M143+RADIANS(N143)+O143+P143</f>
+        <f t="shared" si="25"/>
         <v>8.4202933266452007E-2</v>
       </c>
       <c r="T143" s="8">
-        <f>RADIANS(N143/$C$10)+O143/$B$10+P143/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.4483889859729158</v>
       </c>
     </row>
     <row r="144" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="16"/>
+      <c r="A144" s="18"/>
       <c r="B144" s="6">
         <v>0.5</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.36</v>
       </c>
       <c r="E144" s="8" t="s">
@@ -9659,24 +9659,24 @@
         <v>1.5683105583699099E-2</v>
       </c>
       <c r="Q144" s="8">
-        <f>G144+H144+RADIANS(I144)+J144+K144+L144+M144+RADIANS(N144)+O144+P144</f>
+        <f t="shared" si="23"/>
         <v>0.11294490543775348</v>
       </c>
       <c r="R144" s="8">
-        <f>RADIANS(I144/$C$10)+J144/$B$10+K144/$B$10+RADIANS(N144/$C$10)+O144/$B$10+P144/$B$10</f>
+        <f t="shared" si="24"/>
         <v>2.0457622333681167</v>
       </c>
       <c r="S144" s="8">
-        <f>L144+M144+RADIANS(N144)+O144+P144</f>
+        <f t="shared" si="25"/>
         <v>8.41781894480719E-2</v>
       </c>
       <c r="T144" s="8">
-        <f>RADIANS(N144/$C$10)+O144/$B$10+P144/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.4507797838240759</v>
       </c>
     </row>
     <row r="145" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="16"/>
+      <c r="A145" s="18"/>
       <c r="B145" s="6">
         <v>0.5</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>10</v>
       </c>
       <c r="D145" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.4</v>
       </c>
       <c r="E145" s="8" t="s">
@@ -9722,24 +9722,24 @@
         <v>1.5989016392504499E-2</v>
       </c>
       <c r="Q145" s="8">
-        <f>G145+H145+RADIANS(I145)+J145+K145+L145+M145+RADIANS(N145)+O145+P145</f>
+        <f t="shared" si="23"/>
         <v>0.11824414890517944</v>
       </c>
       <c r="R145" s="8">
-        <f>RADIANS(I145/$C$10)+J145/$B$10+K145/$B$10+RADIANS(N145/$C$10)+O145/$B$10+P145/$B$10</f>
+        <f t="shared" si="24"/>
         <v>2.1629742641461247</v>
       </c>
       <c r="S145" s="8">
-        <f>L145+M145+RADIANS(N145)+O145+P145</f>
+        <f t="shared" si="25"/>
         <v>8.51480560931695E-2</v>
       </c>
       <c r="T145" s="8">
-        <f>RADIANS(N145/$C$10)+O145/$B$10+P145/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.46406696052534</v>
       </c>
     </row>
     <row r="146" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="16"/>
+      <c r="A146" s="18"/>
       <c r="B146" s="6">
         <v>0.5</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>11</v>
       </c>
       <c r="D146" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.44</v>
       </c>
       <c r="E146" s="8" t="s">
@@ -9785,24 +9785,24 @@
         <v>1.6746420036424601E-2</v>
       </c>
       <c r="Q146" s="8">
-        <f>G146+H146+RADIANS(I146)+J146+K146+L146+M146+RADIANS(N146)+O146+P146</f>
+        <f t="shared" si="23"/>
         <v>0.12668232897467796</v>
       </c>
       <c r="R146" s="8">
-        <f>RADIANS(I146/$C$10)+J146/$B$10+K146/$B$10+RADIANS(N146/$C$10)+O146/$B$10+P146/$B$10</f>
+        <f t="shared" si="24"/>
         <v>2.3778018205311588</v>
       </c>
       <c r="S146" s="8">
-        <f>L146+M146+RADIANS(N146)+O146+P146</f>
+        <f t="shared" si="25"/>
         <v>8.8871226606013098E-2</v>
       </c>
       <c r="T146" s="8">
-        <f>RADIANS(N146/$C$10)+O146/$B$10+P146/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.5656848779604839</v>
       </c>
     </row>
     <row r="147" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="16"/>
+      <c r="A147" s="18"/>
       <c r="B147" s="6">
         <v>0.5</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>12</v>
       </c>
       <c r="D147" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.48</v>
       </c>
       <c r="E147" s="8" t="s">
@@ -9848,24 +9848,24 @@
         <v>1.8750982466498901E-2</v>
       </c>
       <c r="Q147" s="8">
-        <f>G147+H147+RADIANS(I147)+J147+K147+L147+M147+RADIANS(N147)+O147+P147</f>
+        <f t="shared" si="23"/>
         <v>0.13799232201031775</v>
       </c>
       <c r="R147" s="8">
-        <f>RADIANS(I147/$C$10)+J147/$B$10+K147/$B$10+RADIANS(N147/$C$10)+O147/$B$10+P147/$B$10</f>
+        <f t="shared" si="24"/>
         <v>2.6481468870349509</v>
       </c>
       <c r="S147" s="8">
-        <f>L147+M147+RADIANS(N147)+O147+P147</f>
+        <f t="shared" si="25"/>
         <v>9.5243164819478698E-2</v>
       </c>
       <c r="T147" s="8">
-        <f>RADIANS(N147/$C$10)+O147/$B$10+P147/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.7176699627890679</v>
       </c>
     </row>
     <row r="148" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="16"/>
+      <c r="A148" s="18"/>
       <c r="B148" s="6">
         <v>0.5</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>13</v>
       </c>
       <c r="D148" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.52</v>
       </c>
       <c r="E148" s="8" t="s">
@@ -9911,24 +9911,24 @@
         <v>2.0567516252788999E-2</v>
       </c>
       <c r="Q148" s="8">
-        <f>G148+H148+RADIANS(I148)+J148+K148+L148+M148+RADIANS(N148)+O148+P148</f>
+        <f t="shared" si="23"/>
         <v>0.14983812403220856</v>
       </c>
       <c r="R148" s="8">
-        <f>RADIANS(I148/$C$10)+J148/$B$10+K148/$B$10+RADIANS(N148/$C$10)+O148/$B$10+P148/$B$10</f>
+        <f t="shared" si="24"/>
         <v>2.9136403206717238</v>
       </c>
       <c r="S148" s="8">
-        <f>L148+M148+RADIANS(N148)+O148+P148</f>
+        <f t="shared" si="25"/>
         <v>0.10205028284101078</v>
       </c>
       <c r="T148" s="8">
-        <f>RADIANS(N148/$C$10)+O148/$B$10+P148/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.8620862351880318</v>
       </c>
     </row>
     <row r="149" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="16"/>
+      <c r="A149" s="18"/>
       <c r="B149" s="6">
         <v>0.5</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>14</v>
       </c>
       <c r="D149" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E149" s="8" t="s">
@@ -9974,24 +9974,24 @@
         <v>2.16946684891293E-2</v>
       </c>
       <c r="Q149" s="8">
-        <f>G149+H149+RADIANS(I149)+J149+K149+L149+M149+RADIANS(N149)+O149+P149</f>
+        <f t="shared" si="23"/>
         <v>0.16101171176092174</v>
       </c>
       <c r="R149" s="8">
-        <f>RADIANS(I149/$C$10)+J149/$B$10+K149/$B$10+RADIANS(N149/$C$10)+O149/$B$10+P149/$B$10</f>
+        <f t="shared" si="24"/>
         <v>3.151947454972126</v>
       </c>
       <c r="S149" s="8">
-        <f>L149+M149+RADIANS(N149)+O149+P149</f>
+        <f t="shared" si="25"/>
         <v>0.1081124549452458</v>
       </c>
       <c r="T149" s="8">
-        <f>RADIANS(N149/$C$10)+O149/$B$10+P149/$B$10</f>
+        <f t="shared" si="26"/>
         <v>1.9780269366882719</v>
       </c>
     </row>
     <row r="150" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="16"/>
+      <c r="A150" s="18"/>
       <c r="B150" s="6">
         <v>0.5</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>15</v>
       </c>
       <c r="D150" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.6</v>
       </c>
       <c r="E150" s="8" t="s">
@@ -10037,24 +10037,24 @@
         <v>2.3581795106492501E-2</v>
       </c>
       <c r="Q150" s="8">
-        <f>G150+H150+RADIANS(I150)+J150+K150+L150+M150+RADIANS(N150)+O150+P150</f>
+        <f t="shared" si="23"/>
         <v>0.17305222706395346</v>
       </c>
       <c r="R150" s="8">
-        <f>RADIANS(I150/$C$10)+J150/$B$10+K150/$B$10+RADIANS(N150/$C$10)+O150/$B$10+P150/$B$10</f>
+        <f t="shared" si="24"/>
         <v>3.4204459742071807</v>
       </c>
       <c r="S150" s="8">
-        <f>L150+M150+RADIANS(N150)+O150+P150</f>
+        <f t="shared" si="25"/>
         <v>0.11499874276354591</v>
       </c>
       <c r="T150" s="8">
-        <f>RADIANS(N150/$C$10)+O150/$B$10+P150/$B$10</f>
+        <f t="shared" si="26"/>
         <v>2.1236061904030357</v>
       </c>
     </row>
     <row r="151" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="16"/>
+      <c r="A151" s="18"/>
       <c r="B151" s="6">
         <v>0.5</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>16</v>
       </c>
       <c r="D151" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.64</v>
       </c>
       <c r="E151" s="8" t="s">
@@ -10100,24 +10100,24 @@
         <v>2.5598655510696899E-2</v>
       </c>
       <c r="Q151" s="8">
-        <f>G151+H151+RADIANS(I151)+J151+K151+L151+M151+RADIANS(N151)+O151+P151</f>
+        <f t="shared" si="23"/>
         <v>0.18485910405094425</v>
       </c>
       <c r="R151" s="8">
-        <f>RADIANS(I151/$C$10)+J151/$B$10+K151/$B$10+RADIANS(N151/$C$10)+O151/$B$10+P151/$B$10</f>
+        <f t="shared" si="24"/>
         <v>3.6884386913625264</v>
       </c>
       <c r="S151" s="8">
-        <f>L151+M151+RADIANS(N151)+O151+P151</f>
+        <f t="shared" si="25"/>
         <v>0.12166182686954041</v>
       </c>
       <c r="T151" s="8">
-        <f>RADIANS(N151/$C$10)+O151/$B$10+P151/$B$10</f>
+        <f t="shared" si="26"/>
         <v>2.2686370110285758</v>
       </c>
     </row>
     <row r="152" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="16"/>
+      <c r="A152" s="18"/>
       <c r="B152" s="6">
         <v>0.5</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>17</v>
       </c>
       <c r="D152" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.68</v>
       </c>
       <c r="E152" s="8" t="s">
@@ -10163,24 +10163,24 @@
         <v>2.76628227319251E-2</v>
       </c>
       <c r="Q152" s="8">
-        <f>G152+H152+RADIANS(I152)+J152+K152+L152+M152+RADIANS(N152)+O152+P152</f>
+        <f t="shared" si="23"/>
         <v>0.1967765951420799</v>
       </c>
       <c r="R152" s="8">
-        <f>RADIANS(I152/$C$10)+J152/$B$10+K152/$B$10+RADIANS(N152/$C$10)+O152/$B$10+P152/$B$10</f>
+        <f t="shared" si="24"/>
         <v>3.9599868189478027</v>
       </c>
       <c r="S152" s="8">
-        <f>L152+M152+RADIANS(N152)+O152+P152</f>
+        <f t="shared" si="25"/>
         <v>0.1284417912530654</v>
       </c>
       <c r="T152" s="8">
-        <f>RADIANS(N152/$C$10)+O152/$B$10+P152/$B$10</f>
+        <f t="shared" si="26"/>
         <v>2.4175498743641759</v>
       </c>
     </row>
     <row r="153" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="16"/>
+      <c r="A153" s="18"/>
       <c r="B153" s="6">
         <v>0.5</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>18</v>
       </c>
       <c r="D153" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.72</v>
       </c>
       <c r="E153" s="8" t="s">
@@ -10226,24 +10226,24 @@
         <v>2.96756291608791E-2</v>
       </c>
       <c r="Q153" s="8">
-        <f>G153+H153+RADIANS(I153)+J153+K153+L153+M153+RADIANS(N153)+O153+P153</f>
+        <f t="shared" si="23"/>
         <v>0.20861045009924414</v>
       </c>
       <c r="R153" s="8">
-        <f>RADIANS(I153/$C$10)+J153/$B$10+K153/$B$10+RADIANS(N153/$C$10)+O153/$B$10+P153/$B$10</f>
+        <f t="shared" si="24"/>
         <v>4.228870370076069</v>
       </c>
       <c r="S153" s="8">
-        <f>L153+M153+RADIANS(N153)+O153+P153</f>
+        <f t="shared" si="25"/>
         <v>0.13515253880303801</v>
       </c>
       <c r="T153" s="8">
-        <f>RADIANS(N153/$C$10)+O153/$B$10+P153/$B$10</f>
+        <f t="shared" si="26"/>
         <v>2.5642803014077598</v>
       </c>
     </row>
     <row r="154" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="16"/>
+      <c r="A154" s="18"/>
       <c r="B154" s="6">
         <v>0.5</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>19</v>
       </c>
       <c r="D154" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.76</v>
       </c>
       <c r="E154" s="8" t="s">
@@ -10289,24 +10289,24 @@
         <v>3.1623373051905199E-2</v>
       </c>
       <c r="Q154" s="8">
-        <f>G154+H154+RADIANS(I154)+J154+K154+L154+M154+RADIANS(N154)+O154+P154</f>
+        <f t="shared" si="23"/>
         <v>0.22019524728580436</v>
       </c>
       <c r="R154" s="8">
-        <f>RADIANS(I154/$C$10)+J154/$B$10+K154/$B$10+RADIANS(N154/$C$10)+O154/$B$10+P154/$B$10</f>
+        <f t="shared" si="24"/>
         <v>4.4901432776246448</v>
       </c>
       <c r="S154" s="8">
-        <f>L154+M154+RADIANS(N154)+O154+P154</f>
+        <f t="shared" si="25"/>
         <v>0.14165572273926522</v>
       </c>
       <c r="T154" s="8">
-        <f>RADIANS(N154/$C$10)+O154/$B$10+P154/$B$10</f>
+        <f t="shared" si="26"/>
         <v>2.7041355412128478</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="16"/>
+      <c r="A155" s="18"/>
       <c r="B155" s="6">
         <v>0.5</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>20</v>
       </c>
       <c r="D155" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.8</v>
       </c>
       <c r="E155" s="8" t="s">
@@ -10352,24 +10352,24 @@
         <v>3.3370446963735201E-2</v>
       </c>
       <c r="Q155" s="8">
-        <f>G155+H155+RADIANS(I155)+J155+K155+L155+M155+RADIANS(N155)+O155+P155</f>
+        <f t="shared" si="23"/>
         <v>0.23158069721470315</v>
       </c>
       <c r="R155" s="8">
-        <f>RADIANS(I155/$C$10)+J155/$B$10+K155/$B$10+RADIANS(N155/$C$10)+O155/$B$10+P155/$B$10</f>
+        <f t="shared" si="24"/>
         <v>4.7508357434375412</v>
       </c>
       <c r="S155" s="8">
-        <f>L155+M155+RADIANS(N155)+O155+P155</f>
+        <f t="shared" si="25"/>
         <v>0.14801135734972562</v>
       </c>
       <c r="T155" s="8">
-        <f>RADIANS(N155/$C$10)+O155/$B$10+P155/$B$10</f>
+        <f t="shared" si="26"/>
         <v>2.8446103406569438</v>
       </c>
     </row>
     <row r="156" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="16"/>
+      <c r="A156" s="18"/>
       <c r="B156" s="6">
         <v>0.5</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>21</v>
       </c>
       <c r="D156" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.84</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -10415,24 +10415,24 @@
         <v>3.5124749694724802E-2</v>
       </c>
       <c r="Q156" s="8">
-        <f>G156+H156+RADIANS(I156)+J156+K156+L156+M156+RADIANS(N156)+O156+P156</f>
+        <f t="shared" si="23"/>
         <v>0.24367430200310725</v>
       </c>
       <c r="R156" s="8">
-        <f>RADIANS(I156/$C$10)+J156/$B$10+K156/$B$10+RADIANS(N156/$C$10)+O156/$B$10+P156/$B$10</f>
+        <f t="shared" si="24"/>
         <v>5.0156494297254088</v>
       </c>
       <c r="S156" s="8">
-        <f>L156+M156+RADIANS(N156)+O156+P156</f>
+        <f t="shared" si="25"/>
         <v>0.15511017909116193</v>
       </c>
       <c r="T156" s="8">
-        <f>RADIANS(N156/$C$10)+O156/$B$10+P156/$B$10</f>
+        <f t="shared" si="26"/>
         <v>2.9903685846193602</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="16"/>
+      <c r="A157" s="18"/>
       <c r="B157" s="6">
         <v>0.5</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>22</v>
       </c>
       <c r="D157" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>0.88</v>
       </c>
       <c r="E157" s="8" t="s">
@@ -10478,24 +10478,24 @@
         <v>3.6873878305780899E-2</v>
       </c>
       <c r="Q157" s="8">
-        <f>G157+H157+RADIANS(I157)+J157+K157+L157+M157+RADIANS(N157)+O157+P157</f>
+        <f t="shared" si="23"/>
         <v>0.25564994336910957</v>
       </c>
       <c r="R157" s="8">
-        <f>RADIANS(I157/$C$10)+J157/$B$10+K157/$B$10+RADIANS(N157/$C$10)+O157/$B$10+P157/$B$10</f>
+        <f t="shared" si="24"/>
         <v>5.2771222072852533</v>
       </c>
       <c r="S157" s="8">
-        <f>L157+M157+RADIANS(N157)+O157+P157</f>
+        <f t="shared" si="25"/>
         <v>0.16214578534346741</v>
       </c>
       <c r="T157" s="8">
-        <f>RADIANS(N157/$C$10)+O157/$B$10+P157/$B$10</f>
+        <f t="shared" si="26"/>
         <v>3.134145309345536</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="16"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="7">
         <v>0.75</v>
       </c>
@@ -10541,24 +10541,24 @@
         <v>2.63066461258828E-2</v>
       </c>
       <c r="Q158" s="7">
-        <f t="shared" ref="Q158:Q199" si="11">G158+H158+RADIANS(I158)+J158+K158+L158+M158+RADIANS(N158)+O158+P158</f>
+        <f t="shared" ref="Q158:Q199" si="28">G158+H158+RADIANS(I158)+J158+K158+L158+M158+RADIANS(N158)+O158+P158</f>
         <v>0.18100685628142155</v>
       </c>
       <c r="R158" s="7">
-        <f t="shared" ref="R158:R199" si="12">RADIANS(I158/$C$10)+J158/$B$10+K158/$B$10+RADIANS(N158/$C$10)+O158/$B$10+P158/$B$10</f>
+        <f t="shared" ref="R158:R199" si="29">RADIANS(I158/$C$10)+J158/$B$10+K158/$B$10+RADIANS(N158/$C$10)+O158/$B$10+P158/$B$10</f>
         <v>3.5577091337748836</v>
       </c>
       <c r="S158" s="7">
-        <f t="shared" ref="S158:S199" si="13">L158+M158+RADIANS(N158)+O158+P158</f>
+        <f t="shared" ref="S158:S199" si="30">L158+M158+RADIANS(N158)+O158+P158</f>
         <v>0.1237674932551153</v>
       </c>
       <c r="T158" s="7">
-        <f t="shared" ref="T158:T199" si="14">RADIANS(N158/$C$10)+O158/$B$10+P158/$B$10</f>
+        <f t="shared" ref="T158:T199" si="31">RADIANS(N158/$C$10)+O158/$B$10+P158/$B$10</f>
         <v>2.331413712649312</v>
       </c>
     </row>
     <row r="159" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="16"/>
+      <c r="A159" s="18"/>
       <c r="B159" s="6">
         <v>0.75</v>
       </c>
@@ -10604,24 +10604,24 @@
         <v>2.5170470213510401E-2</v>
       </c>
       <c r="Q159" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.16516137295777311</v>
       </c>
       <c r="R159" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>3.2064129689048366</v>
       </c>
       <c r="S159" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.1153544554497551</v>
       </c>
       <c r="T159" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.1587424683231475</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A160" s="16"/>
+      <c r="A160" s="18"/>
       <c r="B160" s="8">
         <v>0.75</v>
       </c>
@@ -10667,24 +10667,24 @@
         <v>2.3945080169870001E-2</v>
       </c>
       <c r="Q160" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.14787102316727793</v>
       </c>
       <c r="R160" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>2.8094087108911716</v>
       </c>
       <c r="S160" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.1046435248836224</v>
       </c>
       <c r="T160" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>1.9215059920422801</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="16"/>
+      <c r="A161" s="18"/>
       <c r="B161" s="8">
         <v>0.75</v>
       </c>
@@ -10730,24 +10730,24 @@
         <v>2.1374185846804301E-2</v>
       </c>
       <c r="Q161" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.1358834632246865</v>
       </c>
       <c r="R161" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>2.5031796931608263</v>
       </c>
       <c r="S161" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>9.8214164898183506E-2</v>
       </c>
       <c r="T161" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>1.7500329291531</v>
       </c>
     </row>
     <row r="162" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="16"/>
+      <c r="A162" s="18"/>
       <c r="B162" s="8">
         <v>0.75</v>
       </c>
@@ -10793,45 +10793,45 @@
         <v>1.99673479779592E-2</v>
       </c>
       <c r="Q162" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.13398579620004086</v>
       </c>
       <c r="R162" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>2.4065575152140601</v>
       </c>
       <c r="S162" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.10014510490016738</v>
       </c>
       <c r="T162" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>1.7465224424999759</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A163" s="16"/>
-      <c r="B163" s="19">
+      <c r="A163" s="18"/>
+      <c r="B163" s="16">
         <v>0.75</v>
       </c>
-      <c r="C163" s="19">
+      <c r="C163" s="16">
         <v>8</v>
       </c>
-      <c r="D163" s="19">
-        <f t="shared" si="9"/>
+      <c r="D163" s="16">
+        <f t="shared" si="21"/>
         <v>0.32</v>
       </c>
-      <c r="E163" s="19" t="s">
+      <c r="E163" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="F163" s="19"/>
+      <c r="F163" s="16"/>
       <c r="G163" s="9">
         <v>5.8428709386457696E-3</v>
       </c>
       <c r="H163" s="9">
         <v>5.0779774687688501E-3</v>
       </c>
-      <c r="I163" s="19">
+      <c r="I163" s="16">
         <v>0.35139123071825601</v>
       </c>
       <c r="J163" s="9">
@@ -10840,40 +10840,40 @@
       <c r="K163" s="9">
         <v>7.2722769500637996E-3</v>
       </c>
-      <c r="L163" s="19">
+      <c r="L163" s="16">
         <v>1.9394560639999898E-2</v>
       </c>
-      <c r="M163" s="19">
+      <c r="M163" s="16">
         <v>2.3914634455599999E-2</v>
       </c>
-      <c r="N163" s="19">
+      <c r="N163" s="16">
         <v>0.83628123330436299</v>
       </c>
-      <c r="O163" s="19">
+      <c r="O163" s="16">
         <v>2.42937791258842E-2</v>
       </c>
-      <c r="P163" s="19">
+      <c r="P163" s="16">
         <v>2.02630957273785E-2</v>
       </c>
-      <c r="Q163" s="19">
-        <f t="shared" si="11"/>
+      <c r="Q163" s="16">
+        <f t="shared" si="28"/>
         <v>0.1353009123253397</v>
       </c>
-      <c r="R163" s="19">
-        <f t="shared" si="12"/>
+      <c r="R163" s="16">
+        <f t="shared" si="29"/>
         <v>2.4219744735672508</v>
       </c>
-      <c r="S163" s="19">
-        <f t="shared" si="13"/>
+      <c r="S163" s="16">
+        <f t="shared" si="30"/>
         <v>0.10246193094266259</v>
       </c>
-      <c r="T163" s="19">
-        <f t="shared" si="14"/>
+      <c r="T163" s="16">
+        <f t="shared" si="31"/>
         <v>1.7881133385280279</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A164" s="16"/>
+      <c r="A164" s="18"/>
       <c r="B164" s="8">
         <v>0.75</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.36</v>
       </c>
       <c r="E164" s="8" t="s">
@@ -10919,24 +10919,24 @@
         <v>2.04494287153054E-2</v>
       </c>
       <c r="Q164" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.13924142686653648</v>
       </c>
       <c r="R164" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>2.5014567075378431</v>
       </c>
       <c r="S164" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.10429677588941941</v>
       </c>
       <c r="T164" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>1.8154464427454999</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="16"/>
+      <c r="A165" s="18"/>
       <c r="B165" s="8">
         <v>0.75</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>10</v>
       </c>
       <c r="D165" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
       <c r="E165" s="8" t="s">
@@ -10982,24 +10982,24 @@
         <v>2.0344413834649501E-2</v>
       </c>
       <c r="Q165" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.14474957120668788</v>
       </c>
       <c r="R165" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>2.618024372218025</v>
       </c>
       <c r="S165" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.1052872303631846</v>
       </c>
       <c r="T165" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>1.8209723944522278</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="16"/>
+      <c r="A166" s="18"/>
       <c r="B166" s="8">
         <v>0.75</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>11</v>
       </c>
       <c r="D166" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.44</v>
       </c>
       <c r="E166" s="8" t="s">
@@ -11045,24 +11045,24 @@
         <v>2.0875990775605601E-2</v>
       </c>
       <c r="Q166" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.15432899116423077</v>
       </c>
       <c r="R166" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>2.8617787565703012</v>
       </c>
       <c r="S166" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.10892952156714801</v>
       </c>
       <c r="T166" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>1.9199956060468799</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A167" s="16"/>
+      <c r="A167" s="18"/>
       <c r="B167" s="8">
         <v>0.75</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>12</v>
       </c>
       <c r="D167" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.48</v>
       </c>
       <c r="E167" s="8" t="s">
@@ -11108,24 +11108,24 @@
         <v>2.2734179941054401E-2</v>
       </c>
       <c r="Q167" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.16776002792206257</v>
       </c>
       <c r="R167" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>3.2029736068763963</v>
       </c>
       <c r="S167" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.1155955372853146</v>
       </c>
       <c r="T167" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.0986776808634637</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A168" s="16"/>
+      <c r="A168" s="18"/>
       <c r="B168" s="8">
         <v>0.75</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>13</v>
       </c>
       <c r="D168" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.52</v>
       </c>
       <c r="E168" s="8" t="s">
@@ -11171,24 +11171,24 @@
         <v>2.4884316754358701E-2</v>
       </c>
       <c r="Q168" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.18335100371697183</v>
       </c>
       <c r="R168" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>3.567428630420955</v>
       </c>
       <c r="S168" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.1239794449045382</v>
       </c>
       <c r="T168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.2901545554613278</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A169" s="16"/>
+      <c r="A169" s="18"/>
       <c r="B169" s="8">
         <v>0.75</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>14</v>
       </c>
       <c r="D169" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E169" s="8" t="s">
@@ -11234,24 +11234,24 @@
         <v>2.7298497174359899E-2</v>
       </c>
       <c r="Q169" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.20082944123024385</v>
       </c>
       <c r="R169" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>3.953826577089071</v>
       </c>
       <c r="S169" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.1340024990324154</v>
       </c>
       <c r="T169" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.497650758350896</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="16"/>
+      <c r="A170" s="18"/>
       <c r="B170" s="8">
         <v>0.75</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>15</v>
       </c>
       <c r="D170" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
       <c r="E170" s="8" t="s">
@@ -11297,24 +11297,24 @@
         <v>2.98201628703606E-2</v>
       </c>
       <c r="Q170" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.21833472062313383</v>
       </c>
       <c r="R170" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>4.3446109727866151</v>
       </c>
       <c r="S170" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.14393853848652199</v>
       </c>
       <c r="T170" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.7068160994417996</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A171" s="16"/>
+      <c r="A171" s="18"/>
       <c r="B171" s="8">
         <v>0.75</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>16</v>
       </c>
       <c r="D171" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.64</v>
       </c>
       <c r="E171" s="8" t="s">
@@ -11360,24 +11360,24 @@
         <v>3.2311304906131003E-2</v>
       </c>
       <c r="Q171" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.23586943574043023</v>
       </c>
       <c r="R171" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>4.7340877703139057</v>
       </c>
       <c r="S171" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.15379631920220299</v>
       </c>
       <c r="T171" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.9131361365368003</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="16"/>
+      <c r="A172" s="18"/>
       <c r="B172" s="8">
         <v>0.75</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>17</v>
       </c>
       <c r="D172" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.68</v>
       </c>
       <c r="E172" s="8" t="s">
@@ -11423,24 +11423,24 @@
         <v>3.5350669873639398E-2</v>
       </c>
       <c r="Q172" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.25375627234808296</v>
       </c>
       <c r="R172" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>5.1395526580301452</v>
       </c>
       <c r="S172" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.16396646058818098</v>
       </c>
       <c r="T172" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.1344956583103594</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="16"/>
+      <c r="A173" s="18"/>
       <c r="B173" s="8">
         <v>0.75</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>18</v>
       </c>
       <c r="D173" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
       <c r="E173" s="8" t="s">
@@ -11486,24 +11486,24 @@
         <v>3.8433008168985802E-2</v>
       </c>
       <c r="Q173" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.27151337456375141</v>
       </c>
       <c r="R173" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>5.5439944811149671</v>
       </c>
       <c r="S173" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.17404345027374429</v>
       </c>
       <c r="T173" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.3553380770284118</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A174" s="16"/>
+      <c r="A174" s="18"/>
       <c r="B174" s="8">
         <v>0.75</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>19</v>
       </c>
       <c r="D174" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.76</v>
       </c>
       <c r="E174" s="8" t="s">
@@ -11549,24 +11549,24 @@
         <v>4.1492426727243702E-2</v>
       </c>
       <c r="Q174" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.28956690519712353</v>
       </c>
       <c r="R174" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>5.955561333248423</v>
       </c>
       <c r="S174" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.18437970575656779</v>
       </c>
       <c r="T174" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.5831646680208316</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A175" s="16"/>
+      <c r="A175" s="18"/>
       <c r="B175" s="8">
         <v>0.75</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>20</v>
       </c>
       <c r="D175" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
       <c r="E175" s="8" t="s">
@@ -11612,24 +11612,24 @@
         <v>4.4563196916421098E-2</v>
       </c>
       <c r="Q175" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.30754451745621547</v>
       </c>
       <c r="R175" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>6.3713510758503658</v>
       </c>
       <c r="S175" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.19469955760665492</v>
       </c>
       <c r="T175" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.8164742393985156</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="16"/>
+      <c r="A176" s="18"/>
       <c r="B176" s="8">
         <v>0.75</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>21</v>
       </c>
       <c r="D176" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.84</v>
       </c>
       <c r="E176" s="8" t="s">
@@ -11675,24 +11675,24 @@
         <v>4.76347904840035E-2</v>
       </c>
       <c r="Q176" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.32602600330487225</v>
       </c>
       <c r="R176" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>6.7874790690479836</v>
       </c>
       <c r="S176" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.20557652816802902</v>
       </c>
       <c r="T176" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>4.0512499819346797</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="16"/>
+      <c r="A177" s="18"/>
       <c r="B177" s="8">
         <v>0.75</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>22</v>
       </c>
       <c r="D177" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.88</v>
       </c>
       <c r="E177" s="8" t="s">
@@ -11738,24 +11738,24 @@
         <v>5.0297649935943399E-2</v>
       </c>
       <c r="Q177" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.34368517665202114</v>
       </c>
       <c r="R177" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>7.1695969812994669</v>
       </c>
       <c r="S177" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.21571108029979733</v>
       </c>
       <c r="T177" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>4.254012895501976</v>
       </c>
     </row>
     <row r="178" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="16"/>
+      <c r="A178" s="18"/>
       <c r="B178" s="7">
         <v>1</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>3</v>
       </c>
       <c r="D178" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.12</v>
       </c>
       <c r="E178" s="7" t="s">
@@ -11801,24 +11801,24 @@
         <v>4.1060857209610002E-2</v>
       </c>
       <c r="Q178" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.27707850113980592</v>
       </c>
       <c r="R178" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>5.5220885606846934</v>
       </c>
       <c r="S178" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.18531593699656387</v>
       </c>
       <c r="T178" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.544392476140632</v>
       </c>
     </row>
     <row r="179" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="16"/>
+      <c r="A179" s="18"/>
       <c r="B179" s="8">
         <v>1</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.16</v>
       </c>
       <c r="E179" s="8" t="s">
@@ -11864,24 +11864,24 @@
         <v>3.7751921072680099E-2</v>
       </c>
       <c r="Q179" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.25038172417902871</v>
       </c>
       <c r="R179" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>4.9572995274947171</v>
       </c>
       <c r="S179" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.16926311090791035</v>
       </c>
       <c r="T179" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.231142020608492</v>
       </c>
     </row>
     <row r="180" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="16"/>
+      <c r="A180" s="18"/>
       <c r="B180" s="8">
         <v>1</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
       <c r="E180" s="8" t="s">
@@ -11927,24 +11927,24 @@
         <v>3.5713305660593699E-2</v>
       </c>
       <c r="Q180" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.22486537579251845</v>
       </c>
       <c r="R180" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>4.4631235340550344</v>
       </c>
       <c r="S180" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.15350996778997936</v>
       </c>
       <c r="T180" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.9689267198043758</v>
       </c>
     </row>
     <row r="181" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="16"/>
+      <c r="A181" s="18"/>
       <c r="B181" s="8">
         <v>1</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.24</v>
       </c>
       <c r="E181" s="8" t="s">
@@ -11990,24 +11990,24 @@
         <v>3.4425309558918399E-2</v>
       </c>
       <c r="Q181" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.20597332862363923</v>
       </c>
       <c r="R181" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>4.0429098759290527</v>
       </c>
       <c r="S181" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.14349546567618432</v>
       </c>
       <c r="T181" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.7611557488671119</v>
       </c>
     </row>
     <row r="182" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="16"/>
+      <c r="A182" s="18"/>
       <c r="B182" s="8">
         <v>1</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>7</v>
       </c>
       <c r="D182" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="E182" s="8" t="s">
@@ -12053,24 +12053,24 @@
         <v>3.0891085340979601E-2</v>
       </c>
       <c r="Q182" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.18708217974226599</v>
       </c>
       <c r="R182" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>3.5773829951148821</v>
       </c>
       <c r="S182" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.13225145671210681</v>
       </c>
       <c r="T182" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.4781911249077284</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A183" s="16"/>
+      <c r="A183" s="18"/>
       <c r="B183" s="8">
         <v>1</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.32</v>
       </c>
       <c r="E183" s="8" t="s">
@@ -12116,24 +12116,24 @@
         <v>2.90927256901682E-2</v>
       </c>
       <c r="Q183" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.17882393593083057</v>
       </c>
       <c r="R183" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>3.3447339446130493</v>
       </c>
       <c r="S183" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.1297045772057995</v>
       </c>
       <c r="T183" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.3807985652004997</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A184" s="16"/>
+      <c r="A184" s="18"/>
       <c r="B184" s="8">
         <v>1</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.36</v>
       </c>
       <c r="E184" s="8" t="s">
@@ -12179,24 +12179,24 @@
         <v>2.9625393557167298E-2</v>
       </c>
       <c r="Q184" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.17722722387339168</v>
       </c>
       <c r="R184" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>3.3159896028403413</v>
       </c>
       <c r="S184" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.13057670884449549</v>
       </c>
       <c r="T184" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.4133337928073759</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A185" s="16"/>
+      <c r="A185" s="18"/>
       <c r="B185" s="8">
         <v>1</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>10</v>
       </c>
       <c r="D185" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
       <c r="E185" s="8" t="s">
@@ -12242,87 +12242,87 @@
         <v>2.9945482731056301E-2</v>
       </c>
       <c r="Q185" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.17927443229979695</v>
       </c>
       <c r="R185" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>3.3601407706567539</v>
       </c>
       <c r="S185" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.13166524216773601</v>
       </c>
       <c r="T185" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.4321931129799559</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="16"/>
-      <c r="B186" s="19">
+      <c r="A186" s="18"/>
+      <c r="B186" s="16">
         <v>1</v>
       </c>
-      <c r="C186" s="19">
+      <c r="C186" s="16">
         <v>11</v>
       </c>
-      <c r="D186" s="19">
-        <f t="shared" si="9"/>
+      <c r="D186" s="16">
+        <f t="shared" si="21"/>
         <v>0.44</v>
       </c>
-      <c r="E186" s="19" t="s">
+      <c r="E186" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19">
+      <c r="F186" s="16"/>
+      <c r="G186" s="16">
         <v>8.8964083114866505E-3</v>
       </c>
-      <c r="H186" s="19">
+      <c r="H186" s="16">
         <v>8.3071941274153998E-3</v>
       </c>
       <c r="I186" s="9">
         <v>0.50559585713573696</v>
       </c>
-      <c r="J186" s="19">
+      <c r="J186" s="16">
         <v>1.35055971957638E-2</v>
       </c>
-      <c r="K186" s="19">
+      <c r="K186" s="16">
         <v>1.2063555313192101E-2</v>
       </c>
-      <c r="L186" s="19">
+      <c r="L186" s="16">
         <v>2.6173293739999898E-2</v>
       </c>
-      <c r="M186" s="19">
+      <c r="M186" s="16">
         <v>2.9951752002499998E-2</v>
       </c>
-      <c r="N186" s="19">
+      <c r="N186" s="16">
         <v>0.90632702892161199</v>
       </c>
-      <c r="O186" s="19">
+      <c r="O186" s="16">
         <v>3.0809027892991898E-2</v>
       </c>
-      <c r="P186" s="19">
+      <c r="P186" s="16">
         <v>3.0244312046582299E-2</v>
       </c>
-      <c r="Q186" s="19">
-        <f t="shared" si="11"/>
+      <c r="Q186" s="16">
+        <f t="shared" si="28"/>
         <v>0.18459384377589352</v>
       </c>
-      <c r="R186" s="19">
-        <f t="shared" si="12"/>
+      <c r="R186" s="16">
+        <f t="shared" si="29"/>
         <v>3.4747567791995886</v>
       </c>
-      <c r="S186" s="19">
-        <f t="shared" si="13"/>
+      <c r="S186" s="16">
+        <f t="shared" si="30"/>
         <v>0.13299677643657409</v>
       </c>
-      <c r="T186" s="19">
-        <f t="shared" si="14"/>
+      <c r="T186" s="16">
+        <f t="shared" si="31"/>
         <v>2.4484609538847679</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="16"/>
+      <c r="A187" s="18"/>
       <c r="B187" s="8">
         <v>1</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>12</v>
       </c>
       <c r="D187" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.48</v>
       </c>
       <c r="E187" s="8" t="s">
@@ -12368,24 +12368,24 @@
         <v>3.1212654391421599E-2</v>
       </c>
       <c r="Q187" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.19758506761723546</v>
       </c>
       <c r="R187" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>3.8070383538133594</v>
       </c>
       <c r="S187" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.13954700364297881</v>
       </c>
       <c r="T187" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.6242539086191998</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="16"/>
+      <c r="A188" s="18"/>
       <c r="B188" s="8">
         <v>1</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>13</v>
       </c>
       <c r="D188" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.52</v>
       </c>
       <c r="E188" s="8" t="s">
@@ -12431,24 +12431,24 @@
         <v>3.2414694464410497E-2</v>
       </c>
       <c r="Q188" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.21451261367474928</v>
       </c>
       <c r="R188" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>4.2267394374093046</v>
       </c>
       <c r="S188" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.14846113864941241</v>
       </c>
       <c r="T188" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>2.8490452181203358</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A189" s="16"/>
+      <c r="A189" s="18"/>
       <c r="B189" s="8">
         <v>1</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>14</v>
       </c>
       <c r="D189" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E189" s="8" t="s">
@@ -12494,24 +12494,24 @@
         <v>3.3671528823640502E-2</v>
       </c>
       <c r="Q189" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.23904520938774773</v>
       </c>
       <c r="R189" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>4.6810989407533272</v>
       </c>
       <c r="S189" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.16393142778785746</v>
       </c>
       <c r="T189" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.0877493548797759</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A190" s="16"/>
+      <c r="A190" s="18"/>
       <c r="B190" s="8">
         <v>1</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>15</v>
       </c>
       <c r="D190" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
       <c r="E190" s="8" t="s">
@@ -12557,24 +12557,24 @@
         <v>3.6008636346369902E-2</v>
       </c>
       <c r="Q190" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.26523581007040964</v>
       </c>
       <c r="R190" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>5.1787995582425506</v>
       </c>
       <c r="S190" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.18047313848657315</v>
       </c>
       <c r="T190" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.3568841188669678</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="16"/>
+      <c r="A191" s="18"/>
       <c r="B191" s="8">
         <v>1</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>16</v>
       </c>
       <c r="D191" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.64</v>
       </c>
       <c r="E191" s="8" t="s">
@@ -12620,24 +12620,24 @@
         <v>3.9561334382077998E-2</v>
       </c>
       <c r="Q191" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.2935025300041495</v>
       </c>
       <c r="R191" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>5.7339020821051925</v>
       </c>
       <c r="S191" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.19881723592971301</v>
       </c>
       <c r="T191" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.6776721077100434</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="16"/>
+      <c r="A192" s="18"/>
       <c r="B192" s="8">
         <v>1</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>17</v>
       </c>
       <c r="D192" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.68</v>
       </c>
       <c r="E192" s="8" t="s">
@@ -12683,24 +12683,24 @@
         <v>4.2970720523847997E-2</v>
       </c>
       <c r="Q192" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.32787715921106347</v>
       </c>
       <c r="R192" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>6.3052166049182166</v>
       </c>
       <c r="S192" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.2229758993471968</v>
       </c>
       <c r="T192" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>4.0124920032853559</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="16"/>
+      <c r="A193" s="18"/>
       <c r="B193" s="8">
         <v>1</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>18</v>
       </c>
       <c r="D193" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.72</v>
       </c>
       <c r="E193" s="8" t="s">
@@ -12746,24 +12746,24 @@
         <v>4.6972387774895298E-2</v>
       </c>
       <c r="Q193" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.35415310879082385</v>
       </c>
       <c r="R193" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>6.8459516307697568</v>
       </c>
       <c r="S193" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.23907922047840297</v>
       </c>
       <c r="T193" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>4.3121552222703556</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A194" s="16"/>
+      <c r="A194" s="18"/>
       <c r="B194" s="8">
         <v>1</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>19</v>
       </c>
       <c r="D194" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.76</v>
       </c>
       <c r="E194" s="8" t="s">
@@ -12809,24 +12809,24 @@
         <v>5.1095859688155498E-2</v>
       </c>
       <c r="Q194" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.38335903442601255</v>
       </c>
       <c r="R194" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>7.3896621834827574</v>
       </c>
       <c r="S194" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.25803083898987539</v>
       </c>
       <c r="T194" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>4.6146778161242885</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A195" s="16"/>
+      <c r="A195" s="18"/>
       <c r="B195" s="8">
         <v>1</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>20</v>
       </c>
       <c r="D195" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
       <c r="E195" s="8" t="s">
@@ -12872,24 +12872,24 @@
         <v>5.51568398438258E-2</v>
       </c>
       <c r="Q195" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.41301796190332069</v>
       </c>
       <c r="R195" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>7.9306436160568099</v>
       </c>
       <c r="S195" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.27743125612999814</v>
       </c>
       <c r="T195" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>4.9147813195161199</v>
       </c>
     </row>
     <row r="196" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="16"/>
+      <c r="A196" s="18"/>
       <c r="B196" s="8">
         <v>1</v>
       </c>
@@ -12935,24 +12935,24 @@
         <v>5.9230714830891901E-2</v>
       </c>
       <c r="Q196" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.4424307954370833</v>
       </c>
       <c r="R196" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>8.4586382101074502</v>
       </c>
       <c r="S196" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.29665395838884079</v>
       </c>
       <c r="T196" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>5.2033013627403957</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A197" s="16"/>
+      <c r="A197" s="18"/>
       <c r="B197" s="8">
         <v>1</v>
       </c>
@@ -12998,24 +12998,24 @@
         <v>6.3348859510515096E-2</v>
       </c>
       <c r="Q197" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.47377488027791348</v>
       </c>
       <c r="R197" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>8.9974090594798746</v>
       </c>
       <c r="S197" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.31778990674177265</v>
       </c>
       <c r="T197" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>5.5036974508326235</v>
       </c>
     </row>
     <row r="198" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="16"/>
+      <c r="A198" s="18"/>
       <c r="B198" s="8">
         <v>1</v>
       </c>
@@ -13061,24 +13061,24 @@
         <v>6.6925147290641404E-2</v>
       </c>
       <c r="Q198" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.50329452262914998</v>
       </c>
       <c r="R198" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>9.5075469096171155</v>
       </c>
       <c r="S198" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.33722357030974731</v>
       </c>
       <c r="T198" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>5.7772640745949317</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="16"/>
+      <c r="A199" s="18"/>
       <c r="B199" s="5">
         <v>1</v>
       </c>
@@ -13124,19 +13124,19 @@
         <v>7.0461087056557598E-2</v>
       </c>
       <c r="Q199" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>0.52894973298442005</v>
       </c>
       <c r="R199" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>9.9878569721300643</v>
       </c>
       <c r="S199" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>0.35298843788400192</v>
       </c>
       <c r="T199" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>6.0228731975982353</v>
       </c>
     </row>

--- a/data/omni-control/simtwo/gt/data-analysis_gt.xlsx
+++ b/data/omni-control/simtwo/gt/data-analysis_gt.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="724" documentId="8_{6C4C5C12-CB74-4A7B-923B-BE3379E350DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE03037-578B-4512-8D5F-CF9BE0544B69}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{FD07EEC4-0C01-44C2-8089-ACB43FE9EBFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD07EEC4-0C01-44C2-8089-ACB43FE9EBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:U199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="13" topLeftCell="F76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="13" topLeftCell="F124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
       <selection pane="bottomRight" activeCell="A76" sqref="A76:A137"/>

--- a/data/omni-control/simtwo/gt/data-analysis_gt.xlsx
+++ b/data/omni-control/simtwo/gt/data-analysis_gt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inesctecpt-my.sharepoint.com/personal/ricardo_b_sousa_office365_inesctec_pt/Documents/inesctec/projects/trajectory-control/git/omni-control/data/omni-control/simtwo/gt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="724" documentId="8_{6C4C5C12-CB74-4A7B-923B-BE3379E350DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE03037-578B-4512-8D5F-CF9BE0544B69}"/>
+  <xr:revisionPtr revIDLastSave="729" documentId="8_{6C4C5C12-CB74-4A7B-923B-BE3379E350DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58908599-7C67-46BC-9F54-605333E15905}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD07EEC4-0C01-44C2-8089-ACB43FE9EBFC}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{FD07EEC4-0C01-44C2-8089-ACB43FE9EBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1203,13 +1203,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77CBCEA-FB95-4677-9082-4FB21AC8875C}">
-  <dimension ref="A1:U199"/>
+  <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="13" topLeftCell="F124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="13" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76:A137"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G12:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5377,7 +5377,7 @@
         <v>0.45229589752990151</v>
       </c>
       <c r="R76" s="7">
-        <f t="shared" si="6"/>
+        <f>RADIANS(I76/$C$10)+J76/$B$10+K76/$B$10+RADIANS(N76/$C$10)+O76/$B$10+P76/$B$10</f>
         <v>6.1931347850740108</v>
       </c>
       <c r="S76" s="7">
@@ -13138,6 +13138,54 @@
       <c r="T199" s="8">
         <f t="shared" si="31"/>
         <v>6.0228731975982353</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G200">
+        <v>5.9097445339671699E-2</v>
+      </c>
+      <c r="H200">
+        <v>6.8681325087867701E-2</v>
+      </c>
+      <c r="I200">
+        <v>3.3654254951568299</v>
+      </c>
+      <c r="J200">
+        <v>0.116687981945945</v>
+      </c>
+      <c r="K200">
+        <v>1.38385171823125E-2</v>
+      </c>
+      <c r="L200">
+        <v>0.18932527541999999</v>
+      </c>
+      <c r="M200">
+        <v>0.23661886692</v>
+      </c>
+      <c r="N200">
+        <v>16.102278287484602</v>
+      </c>
+      <c r="O200">
+        <v>0.23769964682014799</v>
+      </c>
+      <c r="P200">
+        <v>4.9749057659762598E-2</v>
+      </c>
+      <c r="Q200" s="8">
+        <f t="shared" ref="Q200" si="32">G200+H200+RADIANS(I200)+J200+K200+L200+M200+RADIANS(N200)+O200+P200</f>
+        <v>1.3114736451857549</v>
+      </c>
+      <c r="R200" s="8">
+        <f t="shared" ref="R200" si="33">RADIANS(I200/$C$10)+J200/$B$10+K200/$B$10+RADIANS(N200/$C$10)+O200/$B$10+P200/$B$10</f>
+        <v>16.854918355850742</v>
+      </c>
+      <c r="S200" s="8">
+        <f t="shared" ref="S200" si="34">L200+M200+RADIANS(N200)+O200+P200</f>
+        <v>0.9944306200089108</v>
+      </c>
+      <c r="T200" s="8">
+        <f t="shared" ref="T200" si="35">RADIANS(N200/$C$10)+O200/$B$10+P200/$B$10</f>
+        <v>11.610363288472024</v>
       </c>
     </row>
   </sheetData>
